--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_5_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_5_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1017453.774372309</v>
+        <v>1034098.893675998</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111178</v>
+        <v>713587.768411118</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7631829.968045101</v>
+        <v>7631829.968045102</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="F2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>241.0142888776591</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>55.54022196058099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8634902589702984</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -801,10 +803,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>73.88580244633063</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>97.02618879209865</v>
       </c>
       <c r="G5" t="n">
-        <v>83.51289199636496</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -950,7 +952,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -975,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -987,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>29.83623182992856</v>
+        <v>132.8134787792463</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1139,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>175.0426595591497</v>
+        <v>186.9919489137622</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>180.7603630910419</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>25.34359263192373</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1339,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>405.7415719969023</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
-        <v>216.4366393623637</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
         <v>187.7594695105699</v>
@@ -1415,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>118.6954547790016</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1509,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>48.98427584501901</v>
       </c>
       <c r="X12" t="n">
-        <v>174.1736765502209</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1543,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>103.3249685652704</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>96.06064116356413</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1613,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>129.0632770397859</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>405.7415719969023</v>
+        <v>118.6954547790018</v>
       </c>
       <c r="G14" t="n">
         <v>405.7415719969023</v>
@@ -1655,10 +1657,10 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1698,7 +1700,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>77.76871477126885</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>41.46660291399489</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1780,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>103.3249685652703</v>
       </c>
       <c r="I16" t="n">
-        <v>21.3881647021493</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
         <v>74.67247646141476</v>
@@ -1807,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1847,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>80.57322268324477</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="G17" t="n">
-        <v>405.7415719969023</v>
+        <v>60.84446729808859</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1932,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>9.46678622243968</v>
       </c>
       <c r="I18" t="n">
         <v>78.54202280713804</v>
@@ -1971,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>121.2738347156338</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2020,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.58838388982758</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>160.0903419479084</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.6396260835082</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2132,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>152.8975946358652</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2157,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>108.7668093276097</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>88.83975893090772</v>
       </c>
     </row>
     <row r="22">
@@ -2257,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>99.78974769572881</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>24.01066093403965</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2330,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>50.64757157172919</v>
+        <v>117.3450705775779</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,19 +2399,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>6.71925357285062</v>
       </c>
       <c r="G24" t="n">
-        <v>127.3343733834988</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2445,19 +2447,19 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2488,16 +2490,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>90.94970861955596</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2533,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>73.36175976093783</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2570,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>140.9791679033474</v>
       </c>
       <c r="T26" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>176.0605840825427</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2631,19 +2633,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>7.425224531302296</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>14.17115707181013</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2679,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
         <v>225.9206407878966</v>
@@ -2697,7 +2699,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>106.914749732671</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>333.4403157157206</v>
+        <v>305.4635228917833</v>
       </c>
       <c r="I29" t="n">
         <v>187.7594695105699</v>
@@ -2837,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>14.4316510730555</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2877,19 +2879,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>140.5149798707072</v>
+        <v>101.9667630112667</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>38.97640474817496</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2992,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.06064116356407</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H32" t="n">
-        <v>11.6079181847129</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>55.26756720238587</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>48.70658777605028</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>81.12752273267807</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
         <v>198.8939788055617</v>
@@ -3171,7 +3173,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3187,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>9.157260519343172</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3244,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>73.3617597609376</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>152.2114433965083</v>
+        <v>20.05209876101991</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>220.5164804230398</v>
@@ -3323,7 +3325,7 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3354,16 +3356,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>20.70860261596294</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>61.81215698495998</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
         <v>165.8272126914158</v>
@@ -3402,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>99.78974769572879</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>60.52077898691468</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>119.9196457843277</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3639,13 +3641,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>127.5262986521574</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>174.1736765502211</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>219.4103988718534</v>
+        <v>98.68313739545469</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>106.0890042129126</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3746,13 +3748,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>56.60619488393976</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>195.5929138346465</v>
@@ -3794,10 +3796,10 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>74.38236437343565</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3831,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>23.65365745722666</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,10 +3878,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>38.76058191786675</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3907,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>159.8772180037952</v>
+        <v>145.6674229028286</v>
       </c>
       <c r="I43" t="n">
-        <v>20.2011370580395</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3980,22 +3982,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>31.94740982209909</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>42.44128741270575</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4074,7 +4076,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4116,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>46.94271415388182</v>
       </c>
       <c r="X45" t="n">
-        <v>174.1736765502211</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513.1241971476163</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C2" t="n">
-        <v>269.6754205035162</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D2" t="n">
-        <v>269.6754205035162</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E2" t="n">
-        <v>269.6754205035162</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>812.6742080953335</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>756.5729737917163</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>111.2071172886402</v>
+        <v>417.752636919763</v>
       </c>
       <c r="C3" t="n">
-        <v>111.2071172886402</v>
+        <v>417.752636919763</v>
       </c>
       <c r="D3" t="n">
-        <v>111.2071172886402</v>
+        <v>268.8182272585117</v>
       </c>
       <c r="E3" t="n">
-        <v>111.2071172886402</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F3" t="n">
-        <v>111.2071172886402</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G3" t="n">
-        <v>111.2071172886402</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4434,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>562.4161926976942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W3" t="n">
-        <v>318.9674160535941</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X3" t="n">
-        <v>318.9674160535941</v>
+        <v>417.752636919763</v>
       </c>
       <c r="Y3" t="n">
-        <v>111.2071172886402</v>
+        <v>417.752636919763</v>
       </c>
     </row>
     <row r="4">
@@ -4504,25 +4506,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>366.1018663125844</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C5" t="n">
-        <v>366.1018663125844</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D5" t="n">
-        <v>366.1018663125844</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E5" t="n">
-        <v>122.6530896684844</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F5" t="n">
-        <v>115.7075889192809</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U5" t="n">
-        <v>366.1018663125844</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V5" t="n">
-        <v>366.1018663125844</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W5" t="n">
-        <v>366.1018663125844</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X5" t="n">
-        <v>366.1018663125844</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y5" t="n">
-        <v>366.1018663125844</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194.4883050441255</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G6" t="n">
         <v>20.03527576299844</v>
@@ -4647,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>432.4774131586771</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>432.4774131586771</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>402.3398052496583</v>
+        <v>366.5263999453368</v>
       </c>
       <c r="X6" t="n">
-        <v>194.4883050441255</v>
+        <v>366.5263999453368</v>
       </c>
       <c r="Y6" t="n">
-        <v>194.4883050441255</v>
+        <v>158.7661011803829</v>
       </c>
     </row>
     <row r="7">
@@ -4787,19 +4789,19 @@
         <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
-        <v>223.6192102101089</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4838,13 +4840,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W8" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="X8" t="n">
         <v>710.516763498309</v>
-      </c>
-      <c r="W8" t="n">
-        <v>710.516763498309</v>
-      </c>
-      <c r="X8" t="n">
-        <v>467.067986854209</v>
       </c>
       <c r="Y8" t="n">
         <v>467.067986854209</v>
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4887,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>781.4709301661494</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>553.2473119025385</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V9" t="n">
-        <v>318.0952036707959</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="W9" t="n">
-        <v>318.0952036707959</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>318.0952036707959</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4987,16 +4989,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1236.366447923487</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="C11" t="n">
-        <v>1236.366447923487</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="D11" t="n">
-        <v>1236.366447923487</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="E11" t="n">
-        <v>850.5781953252431</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="F11" t="n">
-        <v>440.7382236112003</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="G11" t="n">
-        <v>440.7382236112003</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H11" t="n">
         <v>222.1153555684087</v>
@@ -5063,28 +5065,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S11" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T11" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U11" t="n">
-        <v>1622.966287987609</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="V11" t="n">
-        <v>1622.966287987609</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="W11" t="n">
-        <v>1622.966287987609</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="X11" t="n">
-        <v>1622.966287987609</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="Y11" t="n">
-        <v>1622.966287987609</v>
+        <v>968.7637269953004</v>
       </c>
     </row>
     <row r="12">
@@ -5121,43 +5123,43 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809357</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L12" t="n">
-        <v>534.6972605625989</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M12" t="n">
-        <v>934.1153971668618</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N12" t="n">
-        <v>1335.799553443795</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O12" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q12" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W12" t="n">
-        <v>1541.568727888341</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="X12" t="n">
         <v>1365.635721271956</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975218</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975218</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J13" t="n">
         <v>32.45932575975218</v>
@@ -5218,31 +5220,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R13" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1508.970645214178</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="C14" t="n">
-        <v>1508.970645214178</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="D14" t="n">
-        <v>1508.970645214178</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="E14" t="n">
-        <v>1378.603698709343</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="F14" t="n">
         <v>968.7637269953007</v>
@@ -5282,10 +5284,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5303,25 +5305,25 @@
         <v>1508.970645214178</v>
       </c>
       <c r="S14" t="n">
-        <v>1508.970645214178</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T14" t="n">
-        <v>1508.970645214178</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U14" t="n">
-        <v>1508.970645214178</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V14" t="n">
-        <v>1508.970645214178</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="W14" t="n">
-        <v>1508.970645214178</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="X14" t="n">
-        <v>1508.970645214178</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="Y14" t="n">
-        <v>1508.970645214178</v>
+        <v>1088.658125761969</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>661.618777680701</v>
+        <v>800.0311509215306</v>
       </c>
       <c r="C15" t="n">
-        <v>487.165748399574</v>
+        <v>625.5781216404037</v>
       </c>
       <c r="D15" t="n">
-        <v>338.2313387383227</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="E15" t="n">
-        <v>178.9938837328672</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F15" t="n">
-        <v>32.45932575975219</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G15" t="n">
         <v>32.45932575975219</v>
@@ -5355,52 +5357,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K15" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L15" t="n">
-        <v>330.1910807414154</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M15" t="n">
-        <v>729.6092173456783</v>
+        <v>546.7891136313477</v>
       </c>
       <c r="N15" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O15" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1541.568727888341</v>
+        <v>1544.412030642893</v>
       </c>
       <c r="S15" t="n">
-        <v>1541.568727888341</v>
+        <v>1376.909795601059</v>
       </c>
       <c r="T15" t="n">
-        <v>1541.568727888341</v>
+        <v>1176.006786706552</v>
       </c>
       <c r="U15" t="n">
-        <v>1541.568727888341</v>
+        <v>1176.006786706552</v>
       </c>
       <c r="V15" t="n">
-        <v>1499.683270399457</v>
+        <v>1176.006786706552</v>
       </c>
       <c r="W15" t="n">
-        <v>1245.445913671256</v>
+        <v>1176.006786706552</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.594413465723</v>
+        <v>1176.006786706552</v>
       </c>
       <c r="Y15" t="n">
-        <v>829.8341147007691</v>
+        <v>968.2464879415986</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C16" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D16" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E16" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F16" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G16" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="H16" t="n">
-        <v>129.4902764300189</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="I16" t="n">
         <v>107.8860696601711</v>
@@ -5455,31 +5457,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S16" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T16" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U16" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V16" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W16" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X16" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1508.970645214178</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="C17" t="n">
-        <v>1508.970645214178</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="D17" t="n">
-        <v>1427.583551594739</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="E17" t="n">
-        <v>1041.795298996494</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="F17" t="n">
-        <v>631.9553272824514</v>
+        <v>93.91838363660935</v>
       </c>
       <c r="G17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J17" t="n">
         <v>70.13987180521505</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5537,28 +5539,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1508.970645214178</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S17" t="n">
-        <v>1508.970645214178</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T17" t="n">
-        <v>1508.970645214178</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U17" t="n">
-        <v>1508.970645214178</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V17" t="n">
-        <v>1508.970645214178</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W17" t="n">
-        <v>1508.970645214178</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="X17" t="n">
-        <v>1508.970645214178</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="Y17" t="n">
-        <v>1508.970645214178</v>
+        <v>503.7583553506521</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>681.4882208202274</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="C18" t="n">
-        <v>507.0351915391004</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="D18" t="n">
-        <v>507.0351915391004</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="E18" t="n">
-        <v>507.0351915391004</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="F18" t="n">
-        <v>360.5006335659854</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="G18" t="n">
-        <v>222.0882603251556</v>
+        <v>121.3571126583155</v>
       </c>
       <c r="H18" t="n">
         <v>111.7947023326189</v>
       </c>
       <c r="I18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K18" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L18" t="n">
-        <v>534.6972605625989</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M18" t="n">
-        <v>546.7891136313477</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N18" t="n">
-        <v>948.4732699082811</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O18" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P18" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.966287987609</v>
@@ -5619,25 +5621,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1500.467465042525</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T18" t="n">
-        <v>1500.467465042525</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U18" t="n">
-        <v>1500.467465042525</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V18" t="n">
-        <v>1265.315356810782</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W18" t="n">
-        <v>1265.315356810782</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X18" t="n">
-        <v>1057.463856605249</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="Y18" t="n">
-        <v>849.7035578402954</v>
+        <v>121.3571126583155</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C19" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D19" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E19" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F19" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G19" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H19" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I19" t="n">
-        <v>45.17486504240631</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5695,28 +5697,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>194.1667418687505</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="S19" t="n">
-        <v>194.1667418687505</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="T19" t="n">
-        <v>194.1667418687505</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="U19" t="n">
-        <v>194.1667418687505</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="V19" t="n">
-        <v>194.1667418687505</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="W19" t="n">
-        <v>194.1667418687505</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="X19" t="n">
-        <v>194.1667418687505</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="Y19" t="n">
-        <v>194.1667418687505</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>828.0875500720392</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C20" t="n">
-        <v>828.0875500720392</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D20" t="n">
-        <v>828.0875500720392</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E20" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F20" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K20" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5780,22 +5782,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T20" t="n">
-        <v>1468.524273203907</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U20" t="n">
-        <v>1214.687390136161</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V20" t="n">
-        <v>1214.687390136161</v>
+        <v>1291.903400644039</v>
       </c>
       <c r="W20" t="n">
-        <v>1214.687390136161</v>
+        <v>939.1347453739247</v>
       </c>
       <c r="X20" t="n">
-        <v>1214.687390136161</v>
+        <v>565.6689871128449</v>
       </c>
       <c r="Y20" t="n">
-        <v>1214.687390136161</v>
+        <v>175.5296551370332</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>178.9938837328672</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C21" t="n">
-        <v>178.9938837328672</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D21" t="n">
-        <v>178.9938837328672</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E21" t="n">
-        <v>178.9938837328672</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F21" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G21" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K21" t="n">
-        <v>201.1187329501917</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L21" t="n">
-        <v>498.8504879318548</v>
+        <v>147.3709770270848</v>
       </c>
       <c r="M21" t="n">
-        <v>898.2686245361178</v>
+        <v>546.7891136313477</v>
       </c>
       <c r="N21" t="n">
-        <v>1299.952780813051</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O21" t="n">
-        <v>1622.966287987609</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
@@ -5856,25 +5858,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S21" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T21" t="n">
-        <v>1422.063279093102</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U21" t="n">
-        <v>1193.860611630581</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="V21" t="n">
-        <v>958.708503398838</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="W21" t="n">
-        <v>704.4711466706365</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="X21" t="n">
-        <v>496.6196464651036</v>
+        <v>1247.612552740242</v>
       </c>
       <c r="Y21" t="n">
-        <v>288.8593477001497</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>133.2570507049328</v>
+        <v>1369.605756044831</v>
       </c>
       <c r="C22" t="n">
-        <v>133.2570507049328</v>
+        <v>1369.605756044831</v>
       </c>
       <c r="D22" t="n">
-        <v>133.2570507049328</v>
+        <v>1369.605756044831</v>
       </c>
       <c r="E22" t="n">
-        <v>133.2570507049328</v>
+        <v>1369.605756044831</v>
       </c>
       <c r="F22" t="n">
-        <v>133.2570507049328</v>
+        <v>1369.605756044831</v>
       </c>
       <c r="G22" t="n">
-        <v>133.2570507049328</v>
+        <v>1369.605756044831</v>
       </c>
       <c r="H22" t="n">
-        <v>133.2570507049328</v>
+        <v>1369.605756044831</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975218</v>
+        <v>1369.605756044831</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L22" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M22" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N22" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O22" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S22" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T22" t="n">
-        <v>361.2466016029501</v>
+        <v>1393.858948907497</v>
       </c>
       <c r="U22" t="n">
-        <v>361.2466016029501</v>
+        <v>1369.605756044831</v>
       </c>
       <c r="V22" t="n">
-        <v>361.2466016029501</v>
+        <v>1369.605756044831</v>
       </c>
       <c r="W22" t="n">
-        <v>361.2466016029501</v>
+        <v>1369.605756044831</v>
       </c>
       <c r="X22" t="n">
-        <v>133.2570507049328</v>
+        <v>1369.605756044831</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.2570507049328</v>
+        <v>1369.605756044831</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C23" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D23" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E23" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F23" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941459</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O23" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P23" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.96628798761</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.96628798761</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U23" t="n">
-        <v>1622.96628798761</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V23" t="n">
-        <v>1622.96628798761</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W23" t="n">
-        <v>1270.197632717495</v>
+        <v>150.9897000805379</v>
       </c>
       <c r="X23" t="n">
-        <v>1219.038469513729</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y23" t="n">
-        <v>828.8991375379169</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>790.2393568559523</v>
+        <v>39.24645058081342</v>
       </c>
       <c r="C24" t="n">
-        <v>615.7863275748253</v>
+        <v>39.24645058081342</v>
       </c>
       <c r="D24" t="n">
-        <v>466.8519179135741</v>
+        <v>39.24645058081342</v>
       </c>
       <c r="E24" t="n">
-        <v>307.6144629081186</v>
+        <v>39.24645058081342</v>
       </c>
       <c r="F24" t="n">
-        <v>161.0799049350036</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K24" t="n">
-        <v>32.45932575975219</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L24" t="n">
-        <v>256.6067387278475</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M24" t="n">
-        <v>656.0248753321105</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N24" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O24" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P24" t="n">
-        <v>1622.96628798761</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q24" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
         <v>1541.568727888341</v>
       </c>
       <c r="S24" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T24" t="n">
-        <v>1374.066492846507</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U24" t="n">
-        <v>1374.066492846507</v>
+        <v>1112.463051531312</v>
       </c>
       <c r="V24" t="n">
-        <v>1374.066492846507</v>
+        <v>877.3109432995698</v>
       </c>
       <c r="W24" t="n">
-        <v>1374.066492846507</v>
+        <v>623.0735865713682</v>
       </c>
       <c r="X24" t="n">
-        <v>1166.214992640974</v>
+        <v>415.2220863658354</v>
       </c>
       <c r="Y24" t="n">
-        <v>958.4546938760204</v>
+        <v>207.4617876008815</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C25" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D25" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E25" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F25" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G25" t="n">
-        <v>1294.179012144412</v>
+        <v>269.3782090579441</v>
       </c>
       <c r="H25" t="n">
-        <v>1294.179012144412</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="I25" t="n">
-        <v>1294.179012144412</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J25" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K25" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L25" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M25" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N25" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O25" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P25" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U25" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V25" t="n">
-        <v>1368.281799781723</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W25" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X25" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y25" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.7250243665027</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="C26" t="n">
-        <v>390.7250243665027</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="D26" t="n">
-        <v>32.45932575975219</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975219</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975219</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975219</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I26" t="n">
         <v>32.45932575975219</v>
@@ -6239,37 +6241,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O26" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P26" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q26" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R26" t="n">
         <v>1508.970645214178</v>
       </c>
       <c r="S26" t="n">
-        <v>1508.970645214178</v>
+        <v>1366.567445311807</v>
       </c>
       <c r="T26" t="n">
-        <v>1286.226725594945</v>
+        <v>1143.823525692574</v>
       </c>
       <c r="U26" t="n">
-        <v>1108.387751774195</v>
+        <v>889.9866426248285</v>
       </c>
       <c r="V26" t="n">
-        <v>777.3248644306245</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="W26" t="n">
-        <v>777.3248644306245</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="X26" t="n">
-        <v>777.3248644306245</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="Y26" t="n">
-        <v>777.3248644306245</v>
+        <v>558.9237552812579</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>529.3985197801214</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C27" t="n">
-        <v>354.9454904989944</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D27" t="n">
-        <v>206.0110808377432</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E27" t="n">
-        <v>46.77362583228768</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F27" t="n">
         <v>32.45932575975219</v>
@@ -6303,52 +6305,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J27" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K27" t="n">
-        <v>236.9655055809358</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L27" t="n">
-        <v>236.9655055809358</v>
+        <v>147.3709770270846</v>
       </c>
       <c r="M27" t="n">
-        <v>546.7891136313475</v>
+        <v>546.7891136313476</v>
       </c>
       <c r="N27" t="n">
-        <v>948.4732699082808</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O27" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P27" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q27" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R27" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S27" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.966287987609</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U27" t="n">
-        <v>1394.763620525088</v>
+        <v>944.9608164894786</v>
       </c>
       <c r="V27" t="n">
-        <v>1159.611512293345</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="W27" t="n">
-        <v>905.3741555651434</v>
+        <v>455.5713515295342</v>
       </c>
       <c r="X27" t="n">
-        <v>905.3741555651434</v>
+        <v>247.7198513240014</v>
       </c>
       <c r="Y27" t="n">
-        <v>697.6138568001895</v>
+        <v>39.95955255904744</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J28" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K28" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L28" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M28" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N28" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O28" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.966287987609</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X28" t="n">
-        <v>1622.966287987609</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="Y28" t="n">
-        <v>1402.173708844079</v>
+        <v>71.82943156598952</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1354.551979593545</v>
+        <v>899.6268855308238</v>
       </c>
       <c r="C29" t="n">
-        <v>1354.551979593545</v>
+        <v>530.6643685904121</v>
       </c>
       <c r="D29" t="n">
-        <v>1354.551979593545</v>
+        <v>530.6643685904121</v>
       </c>
       <c r="E29" t="n">
-        <v>968.7637269953007</v>
+        <v>530.6643685904121</v>
       </c>
       <c r="F29" t="n">
-        <v>968.7637269953007</v>
+        <v>530.6643685904121</v>
       </c>
       <c r="G29" t="n">
-        <v>558.9237552812579</v>
+        <v>530.6643685904121</v>
       </c>
       <c r="H29" t="n">
         <v>222.1153555684087</v>
@@ -6464,13 +6466,13 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6485,28 +6487,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R29" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S29" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T29" t="n">
-        <v>1622.96628798761</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U29" t="n">
-        <v>1369.129404919864</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="V29" t="n">
-        <v>1354.551979593545</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="W29" t="n">
-        <v>1354.551979593545</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="X29" t="n">
-        <v>1354.551979593545</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="Y29" t="n">
-        <v>1354.551979593545</v>
+        <v>1286.226725594945</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>206.9123550408792</v>
+        <v>694.1911178525678</v>
       </c>
       <c r="C30" t="n">
-        <v>32.45932575975219</v>
+        <v>519.7380885714408</v>
       </c>
       <c r="D30" t="n">
-        <v>32.45932575975219</v>
+        <v>519.7380885714408</v>
       </c>
       <c r="E30" t="n">
-        <v>32.45932575975219</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="F30" t="n">
-        <v>32.45932575975219</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G30" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H30" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I30" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J30" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K30" t="n">
-        <v>61.20822116384404</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L30" t="n">
-        <v>147.3709770270845</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M30" t="n">
-        <v>546.7891136313475</v>
+        <v>905.3665017627701</v>
       </c>
       <c r="N30" t="n">
-        <v>948.4732699082808</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O30" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P30" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q30" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R30" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S30" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T30" t="n">
-        <v>1422.063279093103</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U30" t="n">
-        <v>1280.128955991378</v>
+        <v>1070.16675363759</v>
       </c>
       <c r="V30" t="n">
-        <v>1044.976847759636</v>
+        <v>1070.16675363759</v>
       </c>
       <c r="W30" t="n">
-        <v>790.739491031434</v>
+        <v>1070.16675363759</v>
       </c>
       <c r="X30" t="n">
-        <v>582.8879908259012</v>
+        <v>1070.16675363759</v>
       </c>
       <c r="Y30" t="n">
-        <v>375.1276920609473</v>
+        <v>862.4064548726358</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="C31" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="D31" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="E31" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="F31" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K31" t="n">
-        <v>40.81344334191285</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L31" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M31" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N31" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O31" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q31" t="n">
-        <v>361.2466016029501</v>
+        <v>1558.289822548878</v>
       </c>
       <c r="R31" t="n">
-        <v>361.2466016029501</v>
+        <v>1391.209962814678</v>
       </c>
       <c r="S31" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="T31" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="U31" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="V31" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="W31" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="X31" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="Y31" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144412</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1232.826956011798</v>
+        <v>498.1251229307505</v>
       </c>
       <c r="C32" t="n">
-        <v>863.8644390713862</v>
+        <v>498.1251229307505</v>
       </c>
       <c r="D32" t="n">
-        <v>863.8644390713862</v>
+        <v>498.1251229307505</v>
       </c>
       <c r="E32" t="n">
-        <v>863.8644390713862</v>
+        <v>498.1251229307505</v>
       </c>
       <c r="F32" t="n">
-        <v>454.0244673573434</v>
+        <v>498.1251229307505</v>
       </c>
       <c r="G32" t="n">
-        <v>44.18449564330058</v>
+        <v>88.28515121670762</v>
       </c>
       <c r="H32" t="n">
-        <v>32.45932575975219</v>
+        <v>88.28515121670762</v>
       </c>
       <c r="I32" t="n">
         <v>32.45932575975219</v>
@@ -6725,25 +6727,25 @@
         <v>1622.96628798761</v>
       </c>
       <c r="S32" t="n">
-        <v>1622.96628798761</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T32" t="n">
-        <v>1622.96628798761</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U32" t="n">
-        <v>1622.96628798761</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="V32" t="n">
-        <v>1622.96628798761</v>
+        <v>871.5908811918304</v>
       </c>
       <c r="W32" t="n">
-        <v>1622.96628798761</v>
+        <v>871.5908811918304</v>
       </c>
       <c r="X32" t="n">
-        <v>1622.96628798761</v>
+        <v>498.1251229307505</v>
       </c>
       <c r="Y32" t="n">
-        <v>1232.826956011798</v>
+        <v>498.1251229307505</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>206.9123550408792</v>
+        <v>160.9932758437808</v>
       </c>
       <c r="C33" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="D33" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="E33" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F33" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G33" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H33" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I33" t="n">
         <v>32.45932575975219</v>
@@ -6783,46 +6785,46 @@
         <v>32.45932575975219</v>
       </c>
       <c r="L33" t="n">
-        <v>147.3709770270845</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M33" t="n">
-        <v>546.7891136313475</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N33" t="n">
-        <v>948.4732699082808</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O33" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P33" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q33" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R33" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S33" t="n">
-        <v>1541.019295328339</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T33" t="n">
-        <v>1340.116286433832</v>
+        <v>1254.561044051269</v>
       </c>
       <c r="U33" t="n">
-        <v>1111.91361897131</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V33" t="n">
-        <v>876.7615107395675</v>
+        <v>791.2062683570043</v>
       </c>
       <c r="W33" t="n">
-        <v>622.5241540113659</v>
+        <v>536.9689116288027</v>
       </c>
       <c r="X33" t="n">
-        <v>414.6726538058331</v>
+        <v>536.9689116288027</v>
       </c>
       <c r="Y33" t="n">
-        <v>206.9123550408792</v>
+        <v>329.2086128638488</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C34" t="n">
-        <v>1294.179012144412</v>
+        <v>351.9968435026035</v>
       </c>
       <c r="D34" t="n">
-        <v>1294.179012144412</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="E34" t="n">
-        <v>1294.179012144412</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="F34" t="n">
-        <v>1294.179012144412</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K34" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L34" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N34" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V34" t="n">
-        <v>1368.281799781722</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W34" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X34" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y34" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>596.0482301975408</v>
+        <v>462.5539426869464</v>
       </c>
       <c r="C35" t="n">
-        <v>596.0482301975408</v>
+        <v>462.5539426869464</v>
       </c>
       <c r="D35" t="n">
-        <v>596.0482301975408</v>
+        <v>462.5539426869464</v>
       </c>
       <c r="E35" t="n">
-        <v>596.0482301975408</v>
+        <v>462.5539426869464</v>
       </c>
       <c r="F35" t="n">
-        <v>596.0482301975408</v>
+        <v>462.5539426869464</v>
       </c>
       <c r="G35" t="n">
-        <v>186.208258483498</v>
+        <v>52.71397097290361</v>
       </c>
       <c r="H35" t="n">
-        <v>186.208258483498</v>
+        <v>52.71397097290361</v>
       </c>
       <c r="I35" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
         <v>838.8947028941456</v>
@@ -6962,25 +6964,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T35" t="n">
-        <v>1202.653768535401</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U35" t="n">
-        <v>948.8168854676549</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="V35" t="n">
-        <v>948.8168854676549</v>
+        <v>815.3225979570606</v>
       </c>
       <c r="W35" t="n">
-        <v>596.0482301975408</v>
+        <v>462.5539426869464</v>
       </c>
       <c r="X35" t="n">
-        <v>596.0482301975408</v>
+        <v>462.5539426869464</v>
       </c>
       <c r="Y35" t="n">
-        <v>596.0482301975408</v>
+        <v>462.5539426869464</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>989.6600854869342</v>
+        <v>536.0020001277505</v>
       </c>
       <c r="C36" t="n">
-        <v>815.2070562058072</v>
+        <v>361.5489708466235</v>
       </c>
       <c r="D36" t="n">
-        <v>666.272646544556</v>
+        <v>212.6145611853723</v>
       </c>
       <c r="E36" t="n">
-        <v>507.0351915391004</v>
+        <v>53.37710617991678</v>
       </c>
       <c r="F36" t="n">
-        <v>360.5006335659854</v>
+        <v>53.37710617991678</v>
       </c>
       <c r="G36" t="n">
-        <v>222.0882603251556</v>
+        <v>53.37710617991678</v>
       </c>
       <c r="H36" t="n">
-        <v>111.7947023326189</v>
+        <v>53.37710617991678</v>
       </c>
       <c r="I36" t="n">
         <v>32.45932575975219</v>
@@ -7017,49 +7019,49 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K36" t="n">
-        <v>61.20822116384404</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9399761455072</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M36" t="n">
-        <v>758.3581127497703</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N36" t="n">
-        <v>1160.042269026704</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O36" t="n">
-        <v>1483.055776201262</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P36" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1560.529765780579</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S36" t="n">
-        <v>1393.027530738745</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T36" t="n">
-        <v>1393.027530738745</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U36" t="n">
-        <v>1393.027530738745</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="V36" t="n">
-        <v>1157.875422507002</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="W36" t="n">
-        <v>1157.875422507002</v>
+        <v>1119.829136118305</v>
       </c>
       <c r="X36" t="n">
-        <v>1157.875422507002</v>
+        <v>911.9776359127725</v>
       </c>
       <c r="Y36" t="n">
-        <v>1157.875422507002</v>
+        <v>704.2173371478186</v>
       </c>
     </row>
     <row r="37">
@@ -7117,25 +7119,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R37" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S37" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T37" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U37" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V37" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W37" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X37" t="n">
-        <v>32.45932575975219</v>
+        <v>133.2570507049328</v>
       </c>
       <c r="Y37" t="n">
         <v>32.45932575975219</v>
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>462.5539426869464</v>
+        <v>738.230242413013</v>
       </c>
       <c r="C38" t="n">
-        <v>93.5914257465347</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="D38" t="n">
-        <v>93.5914257465347</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="E38" t="n">
-        <v>32.45932575975219</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="F38" t="n">
-        <v>32.45932575975219</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G38" t="n">
-        <v>32.45932575975219</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H38" t="n">
         <v>32.45932575975219</v>
@@ -7175,19 +7177,19 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K38" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O38" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P38" t="n">
         <v>1569.862809315274</v>
@@ -7202,22 +7204,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T38" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U38" t="n">
-        <v>1146.385485300631</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V38" t="n">
-        <v>815.3225979570606</v>
+        <v>1501.835332649905</v>
       </c>
       <c r="W38" t="n">
-        <v>462.5539426869464</v>
+        <v>1501.835332649905</v>
       </c>
       <c r="X38" t="n">
-        <v>462.5539426869464</v>
+        <v>1128.369574388825</v>
       </c>
       <c r="Y38" t="n">
-        <v>462.5539426869464</v>
+        <v>738.230242413013</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>989.6600854869342</v>
+        <v>910.3247089140674</v>
       </c>
       <c r="C39" t="n">
-        <v>815.2070562058072</v>
+        <v>735.8716796329404</v>
       </c>
       <c r="D39" t="n">
-        <v>666.272646544556</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E39" t="n">
-        <v>507.0351915391004</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F39" t="n">
-        <v>360.5006335659854</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="G39" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H39" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I39" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K39" t="n">
-        <v>236.9655055809358</v>
+        <v>201.1187329501918</v>
       </c>
       <c r="L39" t="n">
-        <v>534.697260562599</v>
+        <v>498.850487931855</v>
       </c>
       <c r="M39" t="n">
-        <v>934.1153971668621</v>
+        <v>898.268624536118</v>
       </c>
       <c r="N39" t="n">
-        <v>1190.717019112288</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O39" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V39" t="n">
-        <v>1541.568727888341</v>
+        <v>1494.151844904622</v>
       </c>
       <c r="W39" t="n">
-        <v>1541.568727888341</v>
+        <v>1494.151844904622</v>
       </c>
       <c r="X39" t="n">
-        <v>1365.635721271956</v>
+        <v>1286.300344699089</v>
       </c>
       <c r="Y39" t="n">
-        <v>1157.875422507002</v>
+        <v>1078.540045934135</v>
       </c>
     </row>
     <row r="40">
@@ -7333,7 +7335,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L40" t="n">
         <v>107.0302722280248</v>
@@ -7357,16 +7359,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>139.6199360758255</v>
+        <v>261.5666648398646</v>
       </c>
       <c r="T40" t="n">
-        <v>139.6199360758255</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U40" t="n">
-        <v>139.6199360758255</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V40" t="n">
-        <v>139.6199360758255</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W40" t="n">
         <v>32.45932575975219</v>
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>759.6875413069145</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="C41" t="n">
-        <v>390.7250243665027</v>
+        <v>833.6912515949891</v>
       </c>
       <c r="D41" t="n">
-        <v>32.45932575975219</v>
+        <v>475.4255529882386</v>
       </c>
       <c r="E41" t="n">
-        <v>32.45932575975219</v>
+        <v>89.63730038999438</v>
       </c>
       <c r="F41" t="n">
-        <v>32.45932575975219</v>
+        <v>89.63730038999438</v>
       </c>
       <c r="G41" t="n">
         <v>32.45932575975219</v>
@@ -7412,13 +7414,13 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011316</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528323</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7433,28 +7435,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1311.402045381201</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T41" t="n">
-        <v>1088.658125761969</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U41" t="n">
-        <v>834.8212426942232</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="V41" t="n">
-        <v>759.6875413069145</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="W41" t="n">
-        <v>759.6875413069145</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="X41" t="n">
-        <v>759.6875413069145</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="Y41" t="n">
-        <v>759.6875413069145</v>
+        <v>1202.653768535401</v>
       </c>
     </row>
     <row r="42">
@@ -7464,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>636.5674639579101</v>
+        <v>751.087253908612</v>
       </c>
       <c r="C42" t="n">
-        <v>462.1144346767832</v>
+        <v>576.634224627485</v>
       </c>
       <c r="D42" t="n">
-        <v>313.1800250155319</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="E42" t="n">
-        <v>313.1800250155319</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F42" t="n">
-        <v>166.6454670424169</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="G42" t="n">
-        <v>166.6454670424169</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H42" t="n">
-        <v>56.35190904988013</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J42" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K42" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L42" t="n">
-        <v>330.1910807414154</v>
+        <v>147.3709770270843</v>
       </c>
       <c r="M42" t="n">
-        <v>729.6092173456784</v>
+        <v>546.7891136313473</v>
       </c>
       <c r="N42" t="n">
         <v>948.4732699082806</v>
@@ -7515,25 +7517,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S42" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T42" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U42" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="V42" t="n">
-        <v>1306.416619656598</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="W42" t="n">
-        <v>1052.179262928397</v>
+        <v>1334.914389899167</v>
       </c>
       <c r="X42" t="n">
-        <v>844.327762722864</v>
+        <v>1127.062889693634</v>
       </c>
       <c r="Y42" t="n">
-        <v>636.5674639579101</v>
+        <v>919.30259092868</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>361.2466016029501</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="C43" t="n">
-        <v>361.2466016029501</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="D43" t="n">
-        <v>361.2466016029501</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="E43" t="n">
-        <v>361.2466016029501</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="F43" t="n">
-        <v>214.3566541050398</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="G43" t="n">
-        <v>214.3566541050398</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="H43" t="n">
-        <v>52.86451470726684</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I43" t="n">
         <v>32.45932575975219</v>
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>222.1153555684087</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="C44" t="n">
-        <v>222.1153555684087</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="D44" t="n">
-        <v>222.1153555684087</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="E44" t="n">
-        <v>222.1153555684087</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F44" t="n">
-        <v>222.1153555684087</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G44" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H44" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975219</v>
@@ -7649,13 +7651,13 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7670,28 +7672,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1580.096300702048</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S44" t="n">
-        <v>1382.527700869072</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T44" t="n">
-        <v>1159.783781249839</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U44" t="n">
-        <v>905.9468981820935</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V44" t="n">
-        <v>574.8840108385228</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W44" t="n">
-        <v>222.1153555684087</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X44" t="n">
-        <v>222.1153555684087</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="Y44" t="n">
-        <v>222.1153555684087</v>
+        <v>1270.197632717495</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>989.6600854869342</v>
+        <v>910.3247089140674</v>
       </c>
       <c r="C45" t="n">
-        <v>815.2070562058072</v>
+        <v>735.8716796329404</v>
       </c>
       <c r="D45" t="n">
-        <v>666.272646544556</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E45" t="n">
-        <v>507.0351915391004</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F45" t="n">
-        <v>360.5006335659854</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="G45" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H45" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J45" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K45" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L45" t="n">
-        <v>330.1910807414154</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M45" t="n">
-        <v>656.0248753321101</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N45" t="n">
         <v>1057.709031609043</v>
@@ -7764,13 +7766,13 @@
         <v>1541.568727888341</v>
       </c>
       <c r="W45" t="n">
-        <v>1541.568727888341</v>
+        <v>1494.151844904622</v>
       </c>
       <c r="X45" t="n">
-        <v>1365.635721271956</v>
+        <v>1286.300344699089</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.875422507002</v>
+        <v>1078.540045934135</v>
       </c>
     </row>
     <row r="46">
@@ -8058,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,10 +8537,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M9" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,16 +8780,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304797</v>
+        <v>241.381361814901</v>
       </c>
       <c r="O12" t="n">
-        <v>112.9628022719299</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8945,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.314990659905</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>74.46639351210686</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O15" t="n">
-        <v>319.5347010812063</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>74.46639351210686</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0874215304798</v>
+        <v>380.7598033349562</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
-        <v>228.2563757694028</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>186.1735738748424</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304796</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9719,16 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K24" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>296.512727107936</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>455.0874215304797</v>
+        <v>92.88803957954769</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L27" t="n">
-        <v>70.10119885733472</v>
+        <v>186.1735738748422</v>
       </c>
       <c r="M27" t="n">
-        <v>375.205539958231</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>455.0874215304797</v>
@@ -10188,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>157.1342855878806</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>455.0874215304797</v>
+        <v>92.88803957954804</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10431,13 +10433,13 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L33" t="n">
-        <v>186.1735738748421</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>455.0874215304797</v>
+        <v>380.7598033349567</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>455.0874215304797</v>
+        <v>174.18790452568</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>104.7567089243584</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>257.2956640563643</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,16 +10913,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>308.5394070542101</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>73.77211287831321</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711644</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11069,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119838</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>86.93262649026374</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>157.1342855878804</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>270.4206501018624</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928322</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>391.3774455544764</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>455.0874215304797</v>
+        <v>174.1879045256798</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23264,16 +23266,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H11" t="n">
-        <v>117.0036763533569</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>132.6030594580668</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
         <v>165.8272126914158</v>
@@ -23397,10 +23399,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>202.7107073159006</v>
       </c>
       <c r="X12" t="n">
-        <v>31.59930865325657</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23431,13 +23433,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
-        <v>159.8772180037952</v>
+        <v>56.55224943852481</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>123.3497577082892</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23501,10 +23503,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>252.8670930324759</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>1.1344737448091</v>
+        <v>288.1805909627096</v>
       </c>
       <c r="G14" t="n">
         <v>8.971932133631583</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2985142370684</v>
@@ -23586,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>109.1906224126114</v>
@@ -23619,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>2.814869727006666</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>191.3339842354304</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
-        <v>159.8772180037952</v>
+        <v>56.55224943852487</v>
       </c>
       <c r="I16" t="n">
-        <v>126.1137933559315</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
         <v>219.4103988718534</v>
@@ -23735,22 +23737,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>274.1098189374382</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>1.1344737448091</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G17" t="n">
-        <v>8.971932133631583</v>
+        <v>353.8690368324453</v>
       </c>
       <c r="H17" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23820,13 +23822,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>99.72383619017168</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23859,19 +23861,19 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>44.553377975782</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23908,10 +23910,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J19" t="n">
-        <v>62.08409257158718</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>58.49431140418636</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0942155799724</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H20" t="n">
         <v>333.4403157157206</v>
@@ -24020,22 +24022,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>67.61888578717461</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>57.76637432225765</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,25 +24098,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>116.8429368463966</v>
       </c>
     </row>
     <row r="22">
@@ -24145,10 +24147,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I22" t="n">
-        <v>47.71221036235195</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J22" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24178,10 +24180,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3046124576955</v>
+        <v>262.2939515236558</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24218,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>8.971932133631526</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
         <v>333.4403157157206</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>319.0835291067398</v>
+        <v>252.3860301008911</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24285,19 +24287,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>138.3499588205333</v>
       </c>
       <c r="G24" t="n">
-        <v>9.693876124922625</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
         <v>109.1906224126114</v>
@@ -24333,19 +24335,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7266695472104</v>
+        <v>76.77696092765444</v>
       </c>
       <c r="H25" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>147.5019580580808</v>
       </c>
       <c r="J25" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24421,10 +24423,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>213.1612385756532</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24458,10 +24460,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H26" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>195.5929138346465</v>
+        <v>54.61374593129909</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>75.23793015452571</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24519,19 +24521,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>159.107959118565</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>130.8980553215737</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.0282495084215</v>
@@ -24567,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24585,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>72.91723044926633</v>
+        <v>140.8555754337623</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24661,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>27.97679282393727</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24725,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3206073970794</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24765,19 +24767,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>85.40566091718941</v>
+        <v>123.9538777766299</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24850,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>128.7502647990354</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
         <v>159.8772180037952</v>
@@ -24880,13 +24882,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>219.4103988718534</v>
+        <v>123.3497577082893</v>
       </c>
       <c r="T31" t="n">
         <v>226.8162656893113</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24917,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,16 +24928,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>8.971932133631583</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H32" t="n">
-        <v>321.8323975310077</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
-        <v>187.7594695105699</v>
+        <v>132.4919023081841</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,25 +24967,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>124.0019112122655</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25014,7 +25016,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25044,7 +25046,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>84.69968995873768</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25059,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>158.0895605792847</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>159.8772180037952</v>
@@ -25132,10 +25134,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>213.1612385756534</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25172,7 +25174,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>35.5480261140616</v>
+        <v>167.70737074955</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25211,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25242,16 +25244,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>57.83342019117509</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>18.77142751331553</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25290,16 +25292,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25357,7 +25359,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
         <v>219.4103988718534</v>
@@ -25366,7 +25368,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>126.2142705097871</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25375,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>118.794905656366</v>
       </c>
     </row>
     <row r="38">
@@ -25397,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>321.4095910853471</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25406,7 +25408,7 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>187.7594695105699</v>
@@ -25442,22 +25444,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>207.8326126858072</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25488,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
         <v>165.8272126914158</v>
@@ -25527,13 +25529,13 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>105.2742884972679</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>31.59930865325634</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25570,7 +25572,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J40" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,16 +25593,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R40" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>120.7272614763987</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.3046124576955</v>
@@ -25609,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>180.4339941236784</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25634,13 +25636,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.7135041305339</v>
+        <v>358.1073092465941</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25682,10 +25684,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
-        <v>253.3698940966993</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25719,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>54.88836534991137</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>198.8939788055617</v>
@@ -25764,10 +25766,10 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>212.9344012430529</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25795,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>14.20979510096657</v>
       </c>
       <c r="I43" t="n">
-        <v>127.3008210000413</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J43" t="n">
         <v>74.67247646141475</v>
@@ -25868,22 +25870,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>322.7356317985839</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>70.41439893299169</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25962,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26004,10 +26006,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>204.7522690070378</v>
       </c>
       <c r="X45" t="n">
-        <v>31.59930865325634</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>544748.3494226858</v>
+        <v>544748.3494226859</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>544748.3494226859</v>
+        <v>544748.349422686</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>544748.3494226859</v>
+        <v>544748.3494226858</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>544748.3494226855</v>
+        <v>544748.3494226859</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>544748.3494226856</v>
+        <v>544748.349422686</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>544748.3494226858</v>
+        <v>544748.3494226855</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>544748.3494226855</v>
+        <v>544748.3494226859</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>544748.3494226855</v>
+        <v>544748.3494226859</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>544748.3494226857</v>
+        <v>544748.3494226856</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>544748.3494226857</v>
+        <v>544748.3494226858</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>544748.3494226859</v>
+        <v>544748.349422686</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="C2" t="n">
+        <v>472099.0176719631</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.017671963</v>
-      </c>
-      <c r="C2" t="n">
-        <v>472099.017671963</v>
-      </c>
-      <c r="D2" t="n">
-        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
         <v>245673.2316242975</v>
@@ -26326,19 +26328,19 @@
         <v>245673.2316242975</v>
       </c>
       <c r="G2" t="n">
-        <v>245673.2316242976</v>
+        <v>245673.2316242975</v>
       </c>
       <c r="H2" t="n">
         <v>245673.2316242975</v>
       </c>
       <c r="I2" t="n">
-        <v>245673.2316242975</v>
+        <v>245673.2316242976</v>
       </c>
       <c r="J2" t="n">
         <v>245673.2316242975</v>
       </c>
       <c r="K2" t="n">
-        <v>245673.2316242976</v>
+        <v>245673.2316242975</v>
       </c>
       <c r="L2" t="n">
         <v>245673.2316242975</v>
@@ -26350,10 +26352,10 @@
         <v>245673.2316242975</v>
       </c>
       <c r="O2" t="n">
+        <v>245673.2316242974</v>
+      </c>
+      <c r="P2" t="n">
         <v>245673.2316242976</v>
-      </c>
-      <c r="P2" t="n">
-        <v>245673.2316242975</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26433,7 +26435,7 @@
         <v>43026.40002390872</v>
       </c>
       <c r="H4" t="n">
-        <v>43026.40002390871</v>
+        <v>43026.40002390872</v>
       </c>
       <c r="I4" t="n">
         <v>43026.40002390872</v>
@@ -26442,19 +26444,19 @@
         <v>43026.40002390872</v>
       </c>
       <c r="K4" t="n">
+        <v>43026.40002390872</v>
+      </c>
+      <c r="L4" t="n">
+        <v>43026.40002390872</v>
+      </c>
+      <c r="M4" t="n">
+        <v>43026.40002390872</v>
+      </c>
+      <c r="N4" t="n">
+        <v>43026.40002390872</v>
+      </c>
+      <c r="O4" t="n">
         <v>43026.40002390871</v>
-      </c>
-      <c r="L4" t="n">
-        <v>43026.40002390871</v>
-      </c>
-      <c r="M4" t="n">
-        <v>43026.40002390871</v>
-      </c>
-      <c r="N4" t="n">
-        <v>43026.40002390871</v>
-      </c>
-      <c r="O4" t="n">
-        <v>43026.4000239087</v>
       </c>
       <c r="P4" t="n">
         <v>43026.40002390872</v>
@@ -26482,13 +26484,13 @@
         <v>27864.35291375757</v>
       </c>
       <c r="G5" t="n">
+        <v>27864.35291375756</v>
+      </c>
+      <c r="H5" t="n">
         <v>27864.35291375757</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>27864.35291375756</v>
-      </c>
-      <c r="I5" t="n">
-        <v>27864.35291375757</v>
       </c>
       <c r="J5" t="n">
         <v>27864.35291375757</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22085.364386298</v>
+        <v>22085.36438629789</v>
       </c>
       <c r="C6" t="n">
-        <v>102854.7959178458</v>
+        <v>102854.7959178459</v>
       </c>
       <c r="D6" t="n">
-        <v>102854.7959178459</v>
+        <v>102854.7959178457</v>
       </c>
       <c r="E6" t="n">
-        <v>7842.308561384503</v>
+        <v>7842.308561384514</v>
       </c>
       <c r="F6" t="n">
         <v>174782.4786866312</v>
       </c>
       <c r="G6" t="n">
+        <v>174782.4786866312</v>
+      </c>
+      <c r="H6" t="n">
+        <v>174782.4786866312</v>
+      </c>
+      <c r="I6" t="n">
         <v>174782.4786866313</v>
       </c>
-      <c r="H6" t="n">
-        <v>174782.4786866313</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>111722.5360875249</v>
+      </c>
+      <c r="K6" t="n">
         <v>174782.4786866312</v>
-      </c>
-      <c r="J6" t="n">
-        <v>111722.536087525</v>
-      </c>
-      <c r="K6" t="n">
-        <v>174782.4786866313</v>
       </c>
       <c r="L6" t="n">
         <v>174782.4786866312</v>
       </c>
       <c r="M6" t="n">
-        <v>133731.7808241833</v>
+        <v>133731.7808241834</v>
       </c>
       <c r="N6" t="n">
         <v>174782.4786866312</v>
       </c>
       <c r="O6" t="n">
+        <v>174782.4786866312</v>
+      </c>
+      <c r="P6" t="n">
         <v>174782.4786866313</v>
-      </c>
-      <c r="P6" t="n">
-        <v>174782.4786866312</v>
       </c>
     </row>
   </sheetData>
@@ -26771,7 +26773,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="N3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="O3" t="n">
         <v>146.5718044195371</v>
@@ -26808,16 +26810,16 @@
         <v>405.7415719969023</v>
       </c>
       <c r="I4" t="n">
+        <v>405.7415719969023</v>
+      </c>
+      <c r="J4" t="n">
         <v>405.7415719969024</v>
       </c>
-      <c r="J4" t="n">
-        <v>405.7415719969023</v>
-      </c>
       <c r="K4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="L4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="M4" t="n">
         <v>405.7415719969023</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>181.5942737834321</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
         <v>174.288448637476</v>
@@ -27400,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27442,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>330.6977166954726</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,10 +27463,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,13 +27475,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>111.3719539775262</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,7 +27508,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27521,10 +27523,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>131.8871827571468</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27576,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27597,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>156.0574714863295</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>309.8498569496128</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>331.7898455187701</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27695,7 +27697,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27707,7 +27709,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>221.858751330991</v>
+        <v>118.8815043816733</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27859,22 +27861,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>231.8333861825618</v>
+        <v>219.8840968279493</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27910,7 +27912,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27921,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27950,7 +27952,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>19.40436560377967</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>207.4569945175015</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I17" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J17" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K17" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L17" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M17" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N17" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R17" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S17" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T17" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32305,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H18" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I18" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J18" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K18" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M18" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O18" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P18" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R18" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H19" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I19" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J19" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K19" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L19" t="n">
         <v>39.29566048323129</v>
@@ -32406,7 +32408,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O19" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P19" t="n">
         <v>31.96707026225442</v>
@@ -32415,16 +32417,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R19" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S19" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T19" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I20" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M20" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N20" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32542,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H21" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K21" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O21" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
@@ -32619,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H22" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J22" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L22" t="n">
         <v>39.29566048323129</v>
@@ -32643,7 +32645,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P22" t="n">
         <v>31.96707026225442</v>
@@ -32652,16 +32654,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33883,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H38" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I38" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J38" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K38" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L38" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M38" t="n">
         <v>103.4642265438474</v>
@@ -33907,16 +33909,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O38" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P38" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R38" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S38" t="n">
         <v>13.4271557515988</v>
@@ -33925,7 +33927,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,46 +33967,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H39" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I39" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J39" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L39" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M39" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N39" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O39" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P39" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R39" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S39" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T39" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,40 +34046,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H40" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I40" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J40" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K40" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L40" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M40" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N40" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O40" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P40" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R40" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S40" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T40" t="n">
         <v>1.129323738970203</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>55.51629994036225</v>
-      </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,10 +35257,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M9" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
@@ -35498,16 +35500,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>405.7415719969023</v>
+        <v>192.0355122813236</v>
       </c>
       <c r="O12" t="n">
-        <v>45.37675286849139</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35665,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680335</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L15" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>403.4526632366292</v>
+        <v>12.2139929987362</v>
       </c>
       <c r="N15" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O15" t="n">
-        <v>251.9486516777678</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K17" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L17" t="n">
         <v>274.8802469209098</v>
@@ -35902,7 +35904,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>12.2139929987362</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N18" t="n">
-        <v>405.7415719969023</v>
+        <v>331.4139538013789</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
@@ -35981,7 +35983,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L19" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M19" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N19" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O19" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P19" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K20" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L20" t="n">
         <v>274.8802469209098</v>
@@ -36139,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>141.323749279139</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>300.7391464461244</v>
+        <v>116.0723750175077</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N21" t="n">
         <v>405.7415719969023</v>
@@ -36215,10 +36217,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M22" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L24" t="n">
-        <v>226.4115282506013</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969024</v>
+        <v>43.54219004597032</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
@@ -36455,7 +36457,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36610,7 +36612,7 @@
         <v>249.9811662707763</v>
       </c>
       <c r="P26" t="n">
-        <v>175.2982096635898</v>
+        <v>175.2982096635897</v>
       </c>
       <c r="Q26" t="n">
         <v>53.63987744680306</v>
@@ -36671,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>116.0723750175075</v>
       </c>
       <c r="M27" t="n">
-        <v>312.9531394448604</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N27" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
@@ -36908,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L30" t="n">
-        <v>87.03308673054592</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N30" t="n">
-        <v>405.7415719969023</v>
+        <v>43.54219004597066</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>116.0723750175074</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M33" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N33" t="n">
-        <v>405.7415719969023</v>
+        <v>331.4139538013793</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
@@ -37166,7 +37168,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
@@ -37394,16 +37396,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7415719969023</v>
+        <v>124.8420549921026</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>30.98459604604517</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K38" t="n">
         <v>179.0082576726433</v>
@@ -37561,7 +37563,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>177.5326105223149</v>
+        <v>170.3630375661006</v>
       </c>
       <c r="L39" t="n">
         <v>300.7391464461244</v>
@@ -37631,7 +37633,7 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N39" t="n">
-        <v>259.1935575206327</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L40" t="n">
         <v>66.88568574354744</v>
@@ -37713,10 +37715,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O40" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P40" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>38.06115762167969</v>
       </c>
       <c r="K41" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726429</v>
       </c>
       <c r="L41" t="n">
         <v>274.8802469209098</v>
@@ -37789,7 +37791,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N41" t="n">
-        <v>313.0722467132383</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O41" t="n">
         <v>249.9811662707763</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>300.7391464461244</v>
+        <v>87.03308673054569</v>
       </c>
       <c r="M42" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N42" t="n">
-        <v>221.074800568285</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
@@ -38023,7 +38025,7 @@
         <v>274.8802469209098</v>
       </c>
       <c r="M44" t="n">
-        <v>322.6315268094068</v>
+        <v>322.6315268094071</v>
       </c>
       <c r="N44" t="n">
         <v>313.0722467132387</v>
@@ -38093,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L45" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
-        <v>329.1250450411058</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N45" t="n">
-        <v>405.7415719969023</v>
+        <v>124.8420549921024</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_5_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_5_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>978321.3715333926</v>
+        <v>1028214.148184391</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111175</v>
+        <v>713587.7684111181</v>
       </c>
     </row>
     <row r="8">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -706,22 +706,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>218.0792724223796</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -740,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>99.29102775467332</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>62.13484214871499</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>106.1235512046352</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -940,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>190.3453970742848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1025,10 +1025,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -1037,10 +1037,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>134.667568689459</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>214.0077506398264</v>
       </c>
       <c r="F8" t="n">
-        <v>190.3453970742847</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>62.13484214871499</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1232,7 +1232,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>405.7415719969023</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>98.80659320001064</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>196.6823694349055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,13 +1502,13 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>54.15023412134979</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>117.4467968452433</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>157.7727335375556</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>11.82994607425331</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G14" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>347.0093543540874</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,25 +1688,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>134.431589099559</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>66.9721614271683</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>38.97640474817496</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>39.19479062707046</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>370.8205562787279</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>60.8444672980886</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
         <v>195.5929138346465</v>
@@ -1900,10 +1900,10 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>37.14610625580512</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>70.4601048202951</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>165.8272126914158</v>
@@ -1979,16 +1979,16 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>157.7727335375556</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>158.4949266523908</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.61535944178652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2168,7 +2168,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2177,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>41.46660291399468</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>88.12703672447542</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>145.6674229028286</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>98.68313739545469</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>20.05209876101975</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>66.44822457342141</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G23" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>67.58784295944625</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827553</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>195.8930938644056</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>73.36175976093777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>38.97640474817484</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>371.5842572657312</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>101.9943233729012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>156.4097039718866</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2645,16 +2645,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,22 +2681,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>109.2112706930754</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>38.97640474817491</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>73.36175976093783</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>58.42685044277484</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>99.94109751948886</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>81.12752273267782</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>114.1942888468236</v>
       </c>
       <c r="U30" t="n">
         <v>225.9206407878966</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3046124576955</v>
+        <v>38.97640474817486</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>39.19479062707041</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>86.12552142422567</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>79.22940945069574</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3116,10 +3116,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>21.22010985034621</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>113.4883178883721</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
         <v>225.9206407878966</v>
@@ -3170,7 +3170,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3046124576955</v>
+        <v>38.97640474817486</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>39.19479062707041</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>327.1153542439799</v>
       </c>
       <c r="G35" t="n">
-        <v>331.809102753131</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3325,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>81.12752273267785</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>114.1942888468236</v>
       </c>
       <c r="U36" t="n">
         <v>225.9206407878966</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>38.97640474817491</v>
+        <v>38.97640474817486</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>70.6261198365675</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>102.9844884631573</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>67.70441643510553</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>75.61761624633861</v>
       </c>
       <c r="S39" t="n">
         <v>165.8272126914158</v>
@@ -3641,16 +3641,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>73.36175976093789</v>
+        <v>38.97640474817486</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>289.7197420194587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>291.3404225272366</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>173.5817459848532</v>
+        <v>113.4883178883721</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>106.9147497326711</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>130.2304912107277</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>150.7290918859352</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>81.12752273267785</v>
       </c>
       <c r="T45" t="n">
-        <v>35.65226603968546</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
         <v>225.9206407878966</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>39.19479062707041</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.75394372784808</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C2" t="n">
-        <v>53.75394372784808</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D2" t="n">
-        <v>53.75394372784808</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E2" t="n">
-        <v>53.75394372784808</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>517.4848137278872</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>274.0360370837871</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V2" t="n">
-        <v>274.0360370837871</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W2" t="n">
-        <v>53.75394372784808</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X2" t="n">
-        <v>53.75394372784808</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.75394372784808</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.7661011803829</v>
+        <v>901.2946886937524</v>
       </c>
       <c r="C3" t="n">
-        <v>158.7661011803829</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D3" t="n">
-        <v>158.7661011803829</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E3" t="n">
-        <v>158.7661011803829</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F3" t="n">
-        <v>158.7661011803829</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
         <v>20.03527576299844</v>
@@ -4415,16 +4415,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>158.7661011803829</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>158.7661011803829</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>158.7661011803829</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.7661011803829</v>
+        <v>901.2946886937524</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>518.2486856454962</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C5" t="n">
-        <v>518.2486856454962</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>351.1485472815801</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X5" t="n">
-        <v>710.516763498309</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y5" t="n">
-        <v>518.2486856454962</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="6">
@@ -4649,16 +4649,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
         <v>781.4136778972854</v>
@@ -4673,19 +4673,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>399.5118995681682</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>156.0631229240681</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X6" t="n">
         <v>20.03527576299844</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="8">
@@ -4786,19 +4786,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="D8" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E8" t="n">
-        <v>467.067986854209</v>
+        <v>737.7960950516754</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>901.2946886937524</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C9" t="n">
-        <v>726.8416594126254</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>577.9072497513741</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>418.6697947459187</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>272.1352367728036</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4886,16 +4886,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>817.1412885554689</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>828.0875500720392</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C11" t="n">
-        <v>828.0875500720392</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D11" t="n">
-        <v>828.0875500720392</v>
+        <v>1264.700589380859</v>
       </c>
       <c r="E11" t="n">
-        <v>442.299297473795</v>
+        <v>878.9123367826144</v>
       </c>
       <c r="F11" t="n">
-        <v>32.45932575975219</v>
+        <v>878.9123367826144</v>
       </c>
       <c r="G11" t="n">
-        <v>32.45932575975219</v>
+        <v>469.0723650685716</v>
       </c>
       <c r="H11" t="n">
-        <v>32.45932575975219</v>
+        <v>132.2639653557225</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011321</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5071,22 +5071,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T11" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U11" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V11" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W11" t="n">
-        <v>1400.222368368377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X11" t="n">
-        <v>1026.756610107297</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y11" t="n">
-        <v>828.0875500720392</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>440.4027119985742</v>
+        <v>879.3665274943975</v>
       </c>
       <c r="C12" t="n">
-        <v>440.4027119985742</v>
+        <v>704.9134982132705</v>
       </c>
       <c r="D12" t="n">
-        <v>440.4027119985742</v>
+        <v>555.9790885520192</v>
       </c>
       <c r="E12" t="n">
-        <v>281.1652569931187</v>
+        <v>396.7416335465637</v>
       </c>
       <c r="F12" t="n">
-        <v>281.1652569931187</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G12" t="n">
-        <v>142.7528837522889</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H12" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809358</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L12" t="n">
-        <v>534.697260562599</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M12" t="n">
-        <v>934.1153971668621</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N12" t="n">
         <v>1057.709031609043</v>
@@ -5150,22 +5150,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T12" t="n">
-        <v>1319.369286663325</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U12" t="n">
-        <v>1091.166619200804</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="V12" t="n">
-        <v>856.0145109690609</v>
+        <v>1255.433364719998</v>
       </c>
       <c r="W12" t="n">
-        <v>856.0145109690609</v>
+        <v>1255.433364719998</v>
       </c>
       <c r="X12" t="n">
-        <v>648.1630107635281</v>
+        <v>1047.581864514465</v>
       </c>
       <c r="Y12" t="n">
-        <v>440.4027119985742</v>
+        <v>1047.581864514465</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C13" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D13" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E13" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F13" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5238,13 +5238,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W13" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>812.5144365595893</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C14" t="n">
-        <v>812.5144365595893</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D14" t="n">
-        <v>454.2487379528388</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E14" t="n">
-        <v>442.299297473795</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F14" t="n">
         <v>442.299297473795</v>
@@ -5278,31 +5278,31 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011321</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P14" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q14" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S14" t="n">
         <v>1425.397688154633</v>
@@ -5317,13 +5317,13 @@
         <v>1202.653768535401</v>
       </c>
       <c r="W14" t="n">
-        <v>1202.653768535401</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="X14" t="n">
-        <v>1202.653768535401</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="Y14" t="n">
-        <v>812.5144365595893</v>
+        <v>852.1392691878377</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.7328676138166</v>
+        <v>791.7590851393002</v>
       </c>
       <c r="C15" t="n">
-        <v>408.2798383326896</v>
+        <v>655.9696012003517</v>
       </c>
       <c r="D15" t="n">
-        <v>259.3454286714383</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="E15" t="n">
-        <v>100.1079736659828</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F15" t="n">
-        <v>100.1079736659828</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G15" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H15" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I15" t="n">
         <v>32.45932575975219</v>
@@ -5363,46 +5363,46 @@
         <v>236.9655055809358</v>
       </c>
       <c r="L15" t="n">
-        <v>498.8504879318551</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M15" t="n">
-        <v>898.2686245361181</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N15" t="n">
-        <v>1299.952780813052</v>
+        <v>1190.717019112288</v>
       </c>
       <c r="O15" t="n">
-        <v>1622.96628798761</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.96628798761</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S15" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T15" t="n">
         <v>1422.063279093103</v>
       </c>
       <c r="U15" t="n">
-        <v>1193.860611630581</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="V15" t="n">
-        <v>958.7085033988385</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="W15" t="n">
-        <v>958.7085033988385</v>
+        <v>1167.825922364901</v>
       </c>
       <c r="X15" t="n">
-        <v>958.7085033988385</v>
+        <v>959.9744221593683</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.9482046338846</v>
+        <v>959.9744221593683</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C16" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D16" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E16" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F16" t="n">
         <v>32.45932575975219</v>
@@ -5439,7 +5439,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5469,19 +5469,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U16" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="V16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W16" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X16" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.82943156598952</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>828.0875500720392</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="C17" t="n">
-        <v>828.0875500720392</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="D17" t="n">
-        <v>828.0875500720392</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="E17" t="n">
-        <v>442.299297473795</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F17" t="n">
-        <v>442.299297473795</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5539,28 +5539,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S17" t="n">
-        <v>1425.397688154633</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T17" t="n">
-        <v>1202.653768535401</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U17" t="n">
-        <v>1202.653768535401</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V17" t="n">
-        <v>1202.653768535401</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W17" t="n">
-        <v>1202.653768535401</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="X17" t="n">
-        <v>1202.653768535401</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="Y17" t="n">
-        <v>1202.653768535401</v>
+        <v>503.7583553506521</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>345.324728281709</v>
+        <v>329.2086128638484</v>
       </c>
       <c r="C18" t="n">
-        <v>170.8716990005819</v>
+        <v>329.2086128638484</v>
       </c>
       <c r="D18" t="n">
-        <v>170.8716990005819</v>
+        <v>180.2742032025971</v>
       </c>
       <c r="E18" t="n">
-        <v>170.8716990005819</v>
+        <v>180.2742032025971</v>
       </c>
       <c r="F18" t="n">
-        <v>170.8716990005819</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G18" t="n">
-        <v>32.45932575975219</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L18" t="n">
-        <v>330.1910807414154</v>
+        <v>147.3709770270845</v>
       </c>
       <c r="M18" t="n">
-        <v>729.6092173456784</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N18" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O18" t="n">
-        <v>1454.30688079717</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P18" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1551.794464936806</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1384.292229894972</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T18" t="n">
-        <v>1183.389221000465</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U18" t="n">
-        <v>1183.389221000465</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V18" t="n">
-        <v>1183.389221000465</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W18" t="n">
-        <v>929.1518642722638</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X18" t="n">
-        <v>721.3003640667309</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="Y18" t="n">
-        <v>513.5400653017771</v>
+        <v>329.2086128638484</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C19" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D19" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E19" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F19" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5712,13 +5712,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W19" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="X19" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y19" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>811.2618144142066</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="C20" t="n">
         <v>442.2992974737949</v>
@@ -5755,13 +5755,13 @@
         <v>70.13987180521505</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5776,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S20" t="n">
-        <v>1622.966287987609</v>
+        <v>1348.874759706712</v>
       </c>
       <c r="T20" t="n">
-        <v>1622.966287987609</v>
+        <v>1126.13084008748</v>
       </c>
       <c r="U20" t="n">
-        <v>1622.966287987609</v>
+        <v>1126.13084008748</v>
       </c>
       <c r="V20" t="n">
-        <v>1622.966287987609</v>
+        <v>795.067952743909</v>
       </c>
       <c r="W20" t="n">
-        <v>1270.197632717495</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="X20" t="n">
-        <v>896.7318744564152</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="Y20" t="n">
-        <v>811.2618144142066</v>
+        <v>442.2992974737949</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>581.7166992481121</v>
+        <v>703.5042351695845</v>
       </c>
       <c r="C21" t="n">
-        <v>407.2636699669852</v>
+        <v>529.0512058884575</v>
       </c>
       <c r="D21" t="n">
-        <v>258.3292603057339</v>
+        <v>380.1167962272062</v>
       </c>
       <c r="E21" t="n">
-        <v>258.3292603057339</v>
+        <v>220.8793412217507</v>
       </c>
       <c r="F21" t="n">
-        <v>111.7947023326189</v>
+        <v>74.34478324863571</v>
       </c>
       <c r="G21" t="n">
-        <v>111.7947023326189</v>
+        <v>74.34478324863571</v>
       </c>
       <c r="H21" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I21" t="n">
         <v>32.45932575975218</v>
@@ -5843,10 +5843,10 @@
         <v>905.36650176277</v>
       </c>
       <c r="N21" t="n">
-        <v>1057.709031609043</v>
+        <v>1307.050658039703</v>
       </c>
       <c r="O21" t="n">
-        <v>1380.722538783602</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P21" t="n">
         <v>1622.966287987609</v>
@@ -5855,28 +5855,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S21" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T21" t="n">
-        <v>1254.561044051268</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U21" t="n">
-        <v>1254.561044051268</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="V21" t="n">
-        <v>1254.561044051268</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="W21" t="n">
-        <v>1165.543835238667</v>
+        <v>1287.331371160139</v>
       </c>
       <c r="X21" t="n">
-        <v>957.692335033134</v>
+        <v>1079.479870954606</v>
       </c>
       <c r="Y21" t="n">
-        <v>749.9320362681801</v>
+        <v>871.7195721896526</v>
       </c>
     </row>
     <row r="22">
@@ -5934,28 +5934,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>361.2466016029501</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="S22" t="n">
-        <v>361.2466016029501</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="T22" t="n">
-        <v>132.1392625228377</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="U22" t="n">
-        <v>32.45932575975218</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="V22" t="n">
-        <v>32.45932575975218</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="W22" t="n">
-        <v>32.45932575975218</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="X22" t="n">
-        <v>32.45932575975218</v>
+        <v>214.1077905899919</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.45932575975218</v>
+        <v>214.1077905899919</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>846.2271159476759</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="C23" t="n">
-        <v>846.2271159476759</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="D23" t="n">
-        <v>846.2271159476759</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E23" t="n">
-        <v>779.1076971866441</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1076971866441</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G23" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L23" t="n">
         <v>519.4894913528326</v>
@@ -6019,22 +6019,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.966287987609</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U23" t="n">
-        <v>1622.966287987609</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="V23" t="n">
-        <v>1622.966287987609</v>
+        <v>815.3225979570603</v>
       </c>
       <c r="W23" t="n">
-        <v>1622.966287987609</v>
+        <v>462.5539426869462</v>
       </c>
       <c r="X23" t="n">
-        <v>1622.966287987609</v>
+        <v>462.5539426869462</v>
       </c>
       <c r="Y23" t="n">
-        <v>1232.826956011798</v>
+        <v>462.5539426869462</v>
       </c>
     </row>
     <row r="24">
@@ -6044,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>653.4965929484157</v>
+        <v>583.354768151471</v>
       </c>
       <c r="C24" t="n">
-        <v>479.0435636672887</v>
+        <v>408.901738870344</v>
       </c>
       <c r="D24" t="n">
-        <v>330.1091540060374</v>
+        <v>259.9673292090928</v>
       </c>
       <c r="E24" t="n">
-        <v>170.8716990005819</v>
+        <v>100.7298742036373</v>
       </c>
       <c r="F24" t="n">
-        <v>170.8716990005819</v>
+        <v>100.7298742036373</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384402</v>
       </c>
       <c r="K24" t="n">
         <v>236.9655055809357</v>
@@ -6083,37 +6083,37 @@
         <v>1335.799553443795</v>
       </c>
       <c r="O24" t="n">
-        <v>1335.799553443795</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="P24" t="n">
-        <v>1578.043302647803</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1541.568727888341</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T24" t="n">
-        <v>1541.568727888341</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U24" t="n">
-        <v>1313.366060425819</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V24" t="n">
-        <v>1313.366060425819</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W24" t="n">
-        <v>1059.128703697618</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="X24" t="n">
-        <v>861.2568917133697</v>
+        <v>583.354768151471</v>
       </c>
       <c r="Y24" t="n">
-        <v>653.4965929484157</v>
+        <v>583.354768151471</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191283</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
@@ -6159,7 +6159,7 @@
         <v>187.2357570984439</v>
       </c>
       <c r="N25" t="n">
-        <v>270.9687512285709</v>
+        <v>270.9687512285708</v>
       </c>
       <c r="O25" t="n">
         <v>332.2934283710736</v>
@@ -6180,19 +6180,19 @@
         <v>361.24660160295</v>
       </c>
       <c r="U25" t="n">
-        <v>361.24660160295</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="V25" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W25" t="n">
-        <v>71.82943156598941</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>766.0626579682514</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C26" t="n">
-        <v>766.0626579682514</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D26" t="n">
-        <v>407.7969593615009</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E26" t="n">
-        <v>407.7969593615009</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G26" t="n">
         <v>32.45932575975218</v>
@@ -6226,13 +6226,13 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M26" t="n">
         <v>838.8947028941456</v>
@@ -6256,22 +6256,22 @@
         <v>1508.970645214177</v>
       </c>
       <c r="T26" t="n">
-        <v>1508.970645214177</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U26" t="n">
-        <v>1508.970645214177</v>
+        <v>1183.202156531408</v>
       </c>
       <c r="V26" t="n">
-        <v>1508.970645214177</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="W26" t="n">
-        <v>1156.201989944063</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="X26" t="n">
-        <v>1156.201989944063</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="Y26" t="n">
-        <v>766.0626579682514</v>
+        <v>852.1392691878377</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>432.7822895868609</v>
+        <v>345.324728281709</v>
       </c>
       <c r="C27" t="n">
-        <v>258.3292603057339</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="D27" t="n">
-        <v>258.3292603057339</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="E27" t="n">
-        <v>258.3292603057339</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="F27" t="n">
-        <v>111.7947023326189</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G27" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H27" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I27" t="n">
         <v>32.45932575975218</v>
@@ -6317,10 +6317,10 @@
         <v>729.6092173456783</v>
       </c>
       <c r="N27" t="n">
-        <v>1131.293373622612</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O27" t="n">
-        <v>1454.30688079717</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P27" t="n">
         <v>1622.966287987609</v>
@@ -6329,28 +6329,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S27" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T27" t="n">
-        <v>1422.063279093102</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U27" t="n">
-        <v>1193.860611630581</v>
+        <v>1173.163483952</v>
       </c>
       <c r="V27" t="n">
-        <v>958.708503398838</v>
+        <v>1173.163483952</v>
       </c>
       <c r="W27" t="n">
-        <v>848.3940885573477</v>
+        <v>918.9261272237984</v>
       </c>
       <c r="X27" t="n">
-        <v>640.5425883518149</v>
+        <v>711.0746270182656</v>
       </c>
       <c r="Y27" t="n">
-        <v>432.7822895868609</v>
+        <v>503.3143282533117</v>
       </c>
     </row>
     <row r="28">
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C28" t="n">
         <v>32.45932575975218</v>
@@ -6393,43 +6393,43 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M28" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N28" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O28" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P28" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q28" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R28" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S28" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T28" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="U28" t="n">
-        <v>361.2466016029501</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="V28" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W28" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X28" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y28" t="n">
-        <v>71.82943156598947</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>846.2271159476757</v>
+        <v>880.0583007416833</v>
       </c>
       <c r="C29" t="n">
-        <v>477.2645990072639</v>
+        <v>880.0583007416833</v>
       </c>
       <c r="D29" t="n">
-        <v>477.2645990072639</v>
+        <v>880.0583007416833</v>
       </c>
       <c r="E29" t="n">
-        <v>91.4763464090197</v>
+        <v>880.0583007416833</v>
       </c>
       <c r="F29" t="n">
-        <v>91.4763464090197</v>
+        <v>880.0583007416833</v>
       </c>
       <c r="G29" t="n">
-        <v>32.45932575975218</v>
+        <v>470.2183290276406</v>
       </c>
       <c r="H29" t="n">
-        <v>32.45932575975218</v>
+        <v>133.4099293147914</v>
       </c>
       <c r="I29" t="n">
         <v>32.45932575975218</v>
@@ -6502,13 +6502,13 @@
         <v>1622.966287987609</v>
       </c>
       <c r="W29" t="n">
-        <v>1622.966287987609</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X29" t="n">
-        <v>1622.966287987609</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="Y29" t="n">
-        <v>1232.826956011797</v>
+        <v>880.0583007416833</v>
       </c>
     </row>
     <row r="30">
@@ -6542,16 +6542,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J30" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K30" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L30" t="n">
-        <v>534.6972605625989</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M30" t="n">
-        <v>934.1153971668618</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N30" t="n">
         <v>948.4732699082806</v>
@@ -6569,25 +6569,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T30" t="n">
-        <v>1422.063279093102</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U30" t="n">
-        <v>1193.860611630581</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V30" t="n">
-        <v>958.708503398838</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W30" t="n">
-        <v>704.4711466706365</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X30" t="n">
-        <v>496.6196464651036</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y30" t="n">
-        <v>288.8593477001497</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="31">
@@ -6630,34 +6630,34 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M31" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N31" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O31" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P31" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q31" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R31" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S31" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T31" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="U31" t="n">
-        <v>72.05002336285361</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V31" t="n">
-        <v>72.05002336285361</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W31" t="n">
         <v>32.45932575975218</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>939.1347453739243</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C32" t="n">
-        <v>939.1347453739243</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D32" t="n">
-        <v>939.1347453739243</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E32" t="n">
-        <v>939.1347453739243</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F32" t="n">
-        <v>529.2947736598815</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G32" t="n">
-        <v>119.4548019458387</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H32" t="n">
         <v>32.45932575975218</v>
@@ -6709,7 +6709,7 @@
         <v>519.4894913528326</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6724,28 +6724,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R32" t="n">
-        <v>1622.966287987609</v>
+        <v>1542.936581471755</v>
       </c>
       <c r="S32" t="n">
-        <v>1622.966287987609</v>
+        <v>1345.367981638778</v>
       </c>
       <c r="T32" t="n">
-        <v>1622.966287987609</v>
+        <v>1122.624062019546</v>
       </c>
       <c r="U32" t="n">
-        <v>1622.966287987609</v>
+        <v>1122.624062019546</v>
       </c>
       <c r="V32" t="n">
-        <v>1291.903400644038</v>
+        <v>791.5611746759756</v>
       </c>
       <c r="W32" t="n">
-        <v>939.1347453739243</v>
+        <v>791.5611746759756</v>
       </c>
       <c r="X32" t="n">
-        <v>939.1347453739243</v>
+        <v>791.5611746759756</v>
       </c>
       <c r="Y32" t="n">
-        <v>939.1347453739243</v>
+        <v>401.4218427001639</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>206.9123550408792</v>
+        <v>374.8813674082833</v>
       </c>
       <c r="C33" t="n">
-        <v>32.45932575975218</v>
+        <v>200.4283381271563</v>
       </c>
       <c r="D33" t="n">
-        <v>32.45932575975218</v>
+        <v>200.4283381271563</v>
       </c>
       <c r="E33" t="n">
-        <v>32.45932575975218</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F33" t="n">
         <v>32.45932575975218</v>
@@ -6791,13 +6791,13 @@
         <v>905.36650176277</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.050658039703</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O33" t="n">
-        <v>1622.966287987609</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P33" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.966287987609</v>
@@ -6809,22 +6809,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T33" t="n">
-        <v>1508.3316234539</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U33" t="n">
-        <v>1280.128955991378</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V33" t="n">
-        <v>1044.976847759636</v>
+        <v>958.708503398838</v>
       </c>
       <c r="W33" t="n">
-        <v>790.739491031434</v>
+        <v>958.708503398838</v>
       </c>
       <c r="X33" t="n">
-        <v>582.8879908259012</v>
+        <v>750.8570031933052</v>
       </c>
       <c r="Y33" t="n">
-        <v>375.1276920609472</v>
+        <v>543.0967044283514</v>
       </c>
     </row>
     <row r="34">
@@ -6867,34 +6867,34 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N34" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P34" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q34" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R34" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S34" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T34" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="U34" t="n">
-        <v>72.05002336285361</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V34" t="n">
-        <v>72.05002336285361</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W34" t="n">
         <v>32.45932575975218</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1122.370805150056</v>
+        <v>552.5349053098025</v>
       </c>
       <c r="C35" t="n">
-        <v>753.4082882096438</v>
+        <v>552.5349053098025</v>
       </c>
       <c r="D35" t="n">
-        <v>753.4082882096438</v>
+        <v>552.5349053098025</v>
       </c>
       <c r="E35" t="n">
-        <v>367.6200356113996</v>
+        <v>552.5349053098025</v>
       </c>
       <c r="F35" t="n">
-        <v>367.6200356113996</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G35" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H35" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I35" t="n">
         <v>32.45932575975218</v>
@@ -6943,10 +6943,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6961,28 +6961,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T35" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U35" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V35" t="n">
-        <v>1508.970645214177</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="W35" t="n">
-        <v>1508.970645214177</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="X35" t="n">
-        <v>1508.970645214177</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="Y35" t="n">
-        <v>1508.970645214177</v>
+        <v>939.1347453739243</v>
       </c>
     </row>
     <row r="36">
@@ -7025,16 +7025,16 @@
         <v>505.948365158507</v>
       </c>
       <c r="M36" t="n">
-        <v>905.36650176277</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.050658039703</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O36" t="n">
-        <v>1622.966287987609</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
@@ -7043,7 +7043,7 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1541.019295328339</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T36" t="n">
         <v>1340.116286433832</v>
@@ -7104,25 +7104,25 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M37" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N37" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O37" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P37" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q37" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R37" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S37" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T37" t="n">
         <v>321.8764957967128</v>
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1145.475793905159</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C38" t="n">
-        <v>776.5132769647469</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D38" t="n">
-        <v>418.2475783579964</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E38" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F38" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G38" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H38" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I38" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L38" t="n">
         <v>519.4894913528324</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7198,28 +7198,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.966287987609</v>
+        <v>1551.626773001177</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.966287987609</v>
+        <v>1551.626773001177</v>
       </c>
       <c r="T38" t="n">
-        <v>1518.941552166238</v>
+        <v>1551.626773001177</v>
       </c>
       <c r="U38" t="n">
-        <v>1518.941552166238</v>
+        <v>1551.626773001177</v>
       </c>
       <c r="V38" t="n">
-        <v>1518.941552166238</v>
+        <v>1551.626773001177</v>
       </c>
       <c r="W38" t="n">
-        <v>1518.941552166238</v>
+        <v>1551.626773001177</v>
       </c>
       <c r="X38" t="n">
-        <v>1145.475793905159</v>
+        <v>1178.161014740097</v>
       </c>
       <c r="Y38" t="n">
-        <v>1145.475793905159</v>
+        <v>788.0216827642857</v>
       </c>
     </row>
     <row r="39">
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>329.1174114232697</v>
+        <v>366.1498100463347</v>
       </c>
       <c r="C39" t="n">
-        <v>260.7291119938702</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D39" t="n">
-        <v>111.7947023326189</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E39" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F39" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G39" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H39" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I39" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J39" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K39" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L39" t="n">
-        <v>330.1910807414154</v>
+        <v>256.6067387278473</v>
       </c>
       <c r="M39" t="n">
-        <v>729.6092173456783</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N39" t="n">
-        <v>1057.709031609044</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O39" t="n">
         <v>1380.722538783602</v>
@@ -7277,28 +7277,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1622.966287987609</v>
+        <v>1546.584857435752</v>
       </c>
       <c r="S39" t="n">
-        <v>1455.464052945775</v>
+        <v>1379.082622393918</v>
       </c>
       <c r="T39" t="n">
-        <v>1254.561044051268</v>
+        <v>1178.179613499411</v>
       </c>
       <c r="U39" t="n">
-        <v>1026.358376588747</v>
+        <v>949.9769460368893</v>
       </c>
       <c r="V39" t="n">
-        <v>791.2062683570041</v>
+        <v>949.9769460368893</v>
       </c>
       <c r="W39" t="n">
-        <v>536.9689116288025</v>
+        <v>949.9769460368893</v>
       </c>
       <c r="X39" t="n">
-        <v>329.1174114232697</v>
+        <v>742.1254458313565</v>
       </c>
       <c r="Y39" t="n">
-        <v>329.1174114232697</v>
+        <v>534.3651470664026</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C40" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D40" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E40" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F40" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G40" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H40" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I40" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J40" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L40" t="n">
         <v>107.0302722280248</v>
       </c>
       <c r="M40" t="n">
-        <v>187.235757098444</v>
+        <v>187.2357570984439</v>
       </c>
       <c r="N40" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O40" t="n">
-        <v>332.2934283710737</v>
+        <v>332.2934283710736</v>
       </c>
       <c r="P40" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="Q40" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="R40" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="S40" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="T40" t="n">
-        <v>361.2466016029501</v>
+        <v>361.24660160295</v>
       </c>
       <c r="U40" t="n">
-        <v>287.1438139656391</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V40" t="n">
-        <v>32.45932575975219</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W40" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X40" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y40" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>828.0875500720392</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="C41" t="n">
-        <v>828.0875500720392</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D41" t="n">
-        <v>828.0875500720392</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E41" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F41" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G41" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H41" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I41" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7432,31 +7432,31 @@
         <v>1569.862809315274</v>
       </c>
       <c r="Q41" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T41" t="n">
-        <v>1508.970645214178</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U41" t="n">
-        <v>1508.970645214178</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="V41" t="n">
-        <v>1214.687390136161</v>
+        <v>1069.159481024806</v>
       </c>
       <c r="W41" t="n">
-        <v>1214.687390136161</v>
+        <v>1069.159481024806</v>
       </c>
       <c r="X41" t="n">
-        <v>1214.687390136161</v>
+        <v>1069.159481024806</v>
       </c>
       <c r="Y41" t="n">
-        <v>1214.687390136161</v>
+        <v>1069.159481024806</v>
       </c>
     </row>
     <row r="42">
@@ -7469,58 +7469,58 @@
         <v>206.9123550408792</v>
       </c>
       <c r="C42" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D42" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E42" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F42" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G42" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H42" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I42" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J42" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K42" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L42" t="n">
-        <v>505.948365158507</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M42" t="n">
-        <v>905.36650176277</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N42" t="n">
-        <v>1057.709031609044</v>
+        <v>1335.799553443795</v>
       </c>
       <c r="O42" t="n">
-        <v>1380.722538783602</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T42" t="n">
-        <v>1280.128955991378</v>
+        <v>1508.3316234539</v>
       </c>
       <c r="U42" t="n">
         <v>1280.128955991378</v>
@@ -7535,7 +7535,7 @@
         <v>582.8879908259012</v>
       </c>
       <c r="Y42" t="n">
-        <v>375.1276920609473</v>
+        <v>375.1276920609472</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C43" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D43" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E43" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F43" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G43" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H43" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I43" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J43" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K43" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L43" t="n">
         <v>107.0302722280248</v>
@@ -7602,19 +7602,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U43" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V43" t="n">
-        <v>361.2466016029501</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X43" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>164.0052764776589</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="C44" t="n">
-        <v>164.0052764776589</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D44" t="n">
-        <v>164.0052764776589</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E44" t="n">
-        <v>164.0052764776589</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F44" t="n">
-        <v>32.45932575975218</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G44" t="n">
         <v>32.45932575975218</v>
@@ -7648,16 +7648,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7675,25 +7675,25 @@
         <v>1508.970645214177</v>
       </c>
       <c r="S44" t="n">
-        <v>1508.970645214177</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T44" t="n">
-        <v>1508.970645214177</v>
+        <v>1159.15043741561</v>
       </c>
       <c r="U44" t="n">
-        <v>1255.133762146431</v>
+        <v>1159.15043741561</v>
       </c>
       <c r="V44" t="n">
-        <v>924.0708748028607</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="W44" t="n">
-        <v>924.0708748028607</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="X44" t="n">
-        <v>550.6051165417807</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="Y44" t="n">
-        <v>550.6051165417807</v>
+        <v>828.0875500720392</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>286.2477316137459</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C45" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D45" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E45" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F45" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G45" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H45" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975218</v>
@@ -7733,19 +7733,19 @@
         <v>32.45932575975218</v>
       </c>
       <c r="L45" t="n">
-        <v>147.3709770270845</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M45" t="n">
-        <v>546.7891136313474</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N45" t="n">
-        <v>948.4732699082806</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O45" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P45" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
@@ -7754,25 +7754,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.019295328339</v>
       </c>
       <c r="T45" t="n">
-        <v>1419.451663006699</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U45" t="n">
-        <v>1191.248995544177</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V45" t="n">
-        <v>956.0968873124343</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W45" t="n">
-        <v>701.8595305842327</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X45" t="n">
-        <v>494.0080303786999</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y45" t="n">
-        <v>286.2477316137459</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="46">
@@ -7839,10 +7839,10 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U46" t="n">
-        <v>72.05002336285361</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V46" t="n">
-        <v>32.45932575975218</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W46" t="n">
         <v>32.45932575975218</v>
@@ -8063,7 +8063,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8072,10 +8072,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8534,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>174.1879045256798</v>
+        <v>174.18790452568</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.7381345027554</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,22 +9011,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>334.6314840602835</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304797</v>
+        <v>308.5394070542101</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>73.77211287831321</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,10 +9245,10 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K18" t="n">
-        <v>86.93262649026374</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>186.1735738748421</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>244.1351504444136</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9491,16 +9491,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>203.2271928126415</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>386.6927463205153</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.73813450275541</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,16 +9728,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>455.0874215304798</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O24" t="n">
-        <v>67.58604940343857</v>
+        <v>247.31430480046</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831325</v>
       </c>
       <c r="Q24" t="n">
-        <v>145.1148873712471</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>97.05174705344737</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K27" t="n">
-        <v>86.93262649026376</v>
+        <v>86.93262649026377</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,13 +9965,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304797</v>
+        <v>380.7598033349564</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>244.1351504444137</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>99.73813450275543</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>63.84875129258624</v>
+        <v>92.88803957954774</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>97.05174705344737</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,16 +10439,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>455.0874215304797</v>
+        <v>92.88803957954774</v>
       </c>
       <c r="O33" t="n">
-        <v>386.6927463205153</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>73.77211287831324</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>97.05174705344737</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>103.505681799068</v>
       </c>
       <c r="N36" t="n">
         <v>455.0874215304797</v>
       </c>
       <c r="O36" t="n">
-        <v>386.6927463205153</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>73.77211287831324</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>97.05174705344737</v>
+        <v>97.05174705344739</v>
       </c>
       <c r="K39" t="n">
-        <v>86.93262649026376</v>
+        <v>86.93262649026377</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079359</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>380.7598033349566</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.798708171483</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,13 +11150,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>203.227192812642</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>357.6534580335538</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q42" t="n">
         <v>99.73813450275543</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627455</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11381,7 +11381,7 @@
         <v>86.93262649026376</v>
       </c>
       <c r="L45" t="n">
-        <v>186.1735738748421</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11393,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23263,22 +23263,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>88.95287631055928</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
         <v>251.2985142370684</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>189.5555692211481</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,13 +23390,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>144.7437446842119</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>115.353790304182</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>9.474087561072281</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
         <v>159.8772180037952</v>
@@ -23439,7 +23439,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
         <v>165.4090611368575</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>186.7332506408622</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23500,16 +23500,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>370.1004239980085</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G14" t="n">
-        <v>8.971932133631526</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H14" t="n">
         <v>333.4403157157206</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>2.231614363325605</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,25 +23576,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>38.27690988875676</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>70.05608808125315</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23630,19 +23630,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>106.4446432747563</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.7266695472104</v>
@@ -23676,7 +23676,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
         <v>165.4090611368575</v>
@@ -23709,13 +23709,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>212.9428526967575</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11.91328538475267</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,13 +23740,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>321.0859027741732</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>8.971932133631583</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H17" t="n">
         <v>333.4403157157206</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23788,10 +23788,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>107.9231061375788</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>78.54202280713804</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.12347967798041</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23867,16 +23867,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>9.474087561072281</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H19" t="n">
         <v>159.8772180037952</v>
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>186.7332506408623</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>195.5929138346465</v>
+        <v>37.09798718225571</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>301.622579214267</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24056,7 +24056,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24065,10 +24065,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>67.72401949861668</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
         <v>225.9206407878966</v>
@@ -24110,7 +24110,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>163.5679464364442</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24174,16 +24174,16 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R22" t="n">
-        <v>165.4090611368575</v>
+        <v>19.74163823402893</v>
       </c>
       <c r="S22" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
-        <v>187.6214750622408</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>362.6817429024608</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,16 +24214,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>315.4821454988404</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G23" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
         <v>187.7594695105699</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>112.8556863456975</v>
       </c>
       <c r="S23" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24299,7 +24299,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>69.4404065489752</v>
       </c>
       <c r="H24" t="n">
         <v>109.1906224126114</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>9.879891339071861</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24420,16 +24420,16 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3046124576955</v>
+        <v>212.9428526967577</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>186.7332506408623</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24448,16 +24448,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>35.29178847598024</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H26" t="n">
         <v>333.4403157157206</v>
@@ -24496,22 +24496,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>149.3041908641672</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>10.1234796779807</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24533,16 +24533,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>142.4837124678442</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>128.2704163504529</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24657,13 +24657,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>212.9428526967577</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>356.2866536877591</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H29" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>187.7594695105699</v>
+        <v>87.81837199108108</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>85.40566091718952</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>84.69968995873803</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>247.3282077095207</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>247.3282077095206</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H32" t="n">
-        <v>247.3147942914949</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
         <v>187.7594695105699</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>33.62627689500171</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2985142370684</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25004,10 +25004,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>136.4249706050547</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.0282495084215</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S33" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>85.40566091718961</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25058,7 +25058,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>247.3282077095207</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>247.3282077095206</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>79.76069149773156</v>
       </c>
       <c r="G35" t="n">
-        <v>82.90440137740296</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
         <v>195.5929138346465</v>
@@ -25213,10 +25213,10 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S36" t="n">
-        <v>84.69968995873791</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>84.69968995873803</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>42.22956650912995</v>
       </c>
       <c r="S38" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>117.5319919598825</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
         <v>251.2985142370684</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>105.0040825532102</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25490,7 +25490,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>4.965968251936914</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25529,16 +25529,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25605,13 +25605,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
-        <v>212.9428526967576</v>
+        <v>247.3282077095207</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>93.01409964402188</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.134473744809043</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>414.7135041305339</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
-        <v>36.41183594289834</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25757,13 +25757,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>25.31223282070849</v>
+        <v>85.40566091718961</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>38.50629829026015</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.7266695472104</v>
@@ -25842,19 +25842,19 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095206</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,13 +25873,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>276.6455545309838</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>69.78738853710462</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25964,7 +25964,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,10 +25994,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>84.69968995873791</v>
       </c>
       <c r="T45" t="n">
-        <v>163.2417127658762</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
-        <v>212.9428526967576</v>
+        <v>213.1612385756531</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>544748.3494226859</v>
+        <v>544748.3494226855</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>544748.3494226853</v>
+        <v>544748.3494226856</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>544748.3494226859</v>
+        <v>544748.3494226855</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>544748.3494226857</v>
+        <v>544748.349422686</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>544748.3494226855</v>
+        <v>544748.3494226856</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>544748.3494226853</v>
+        <v>544748.3494226856</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>544748.3494226856</v>
+        <v>544748.3494226855</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>544748.3494226853</v>
+        <v>544748.3494226855</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>544748.3494226858</v>
+        <v>544748.3494226855</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>544748.3494226856</v>
+        <v>544748.3494226853</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
         <v>245673.2316242975</v>
       </c>
       <c r="F2" t="n">
-        <v>245673.2316242975</v>
+        <v>245673.2316242976</v>
       </c>
       <c r="G2" t="n">
-        <v>245673.2316242975</v>
+        <v>245673.2316242976</v>
       </c>
       <c r="H2" t="n">
         <v>245673.2316242976</v>
       </c>
       <c r="I2" t="n">
-        <v>245673.2316242975</v>
+        <v>245673.2316242976</v>
       </c>
       <c r="J2" t="n">
         <v>245673.2316242976</v>
       </c>
       <c r="K2" t="n">
+        <v>245673.2316242974</v>
+      </c>
+      <c r="L2" t="n">
+        <v>245673.2316242975</v>
+      </c>
+      <c r="M2" t="n">
+        <v>245673.2316242975</v>
+      </c>
+      <c r="N2" t="n">
+        <v>245673.2316242975</v>
+      </c>
+      <c r="O2" t="n">
+        <v>245673.2316242975</v>
+      </c>
+      <c r="P2" t="n">
         <v>245673.2316242976</v>
-      </c>
-      <c r="L2" t="n">
-        <v>245673.2316242976</v>
-      </c>
-      <c r="M2" t="n">
-        <v>245673.2316242976</v>
-      </c>
-      <c r="N2" t="n">
-        <v>245673.2316242976</v>
-      </c>
-      <c r="O2" t="n">
-        <v>245673.2316242976</v>
-      </c>
-      <c r="P2" t="n">
-        <v>245673.2316242975</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>166940.1701252468</v>
+        <v>166940.1701252467</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910621</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244792</v>
+        <v>41050.69786244791</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26478,19 +26478,19 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
+        <v>27864.35291375756</v>
+      </c>
+      <c r="F5" t="n">
         <v>27864.35291375757</v>
       </c>
-      <c r="F5" t="n">
-        <v>27864.35291375758</v>
-      </c>
       <c r="G5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="H5" t="n">
         <v>27864.35291375756</v>
       </c>
       <c r="I5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="J5" t="n">
         <v>27864.35291375756</v>
@@ -26505,10 +26505,10 @@
         <v>27864.35291375756</v>
       </c>
       <c r="N5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="O5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="P5" t="n">
         <v>27864.35291375756</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22085.364386298</v>
+        <v>22085.36438629794</v>
       </c>
       <c r="C6" t="n">
-        <v>102854.7959178456</v>
+        <v>102854.7959178457</v>
       </c>
       <c r="D6" t="n">
         <v>102854.7959178457</v>
       </c>
       <c r="E6" t="n">
-        <v>-2002.290831992312</v>
+        <v>6857.848622046831</v>
       </c>
       <c r="F6" t="n">
-        <v>164937.8792932545</v>
+        <v>173798.0187472936</v>
       </c>
       <c r="G6" t="n">
-        <v>164937.8792932545</v>
+        <v>173798.0187472936</v>
       </c>
       <c r="H6" t="n">
-        <v>164937.8792932545</v>
+        <v>173798.0187472936</v>
       </c>
       <c r="I6" t="n">
-        <v>164937.8792932545</v>
+        <v>173798.0187472936</v>
       </c>
       <c r="J6" t="n">
-        <v>101877.9366941483</v>
+        <v>110738.0761481874</v>
       </c>
       <c r="K6" t="n">
-        <v>164937.8792932545</v>
+        <v>173798.0187472934</v>
       </c>
       <c r="L6" t="n">
-        <v>164937.8792932545</v>
+        <v>173798.0187472936</v>
       </c>
       <c r="M6" t="n">
-        <v>123887.1814308066</v>
+        <v>132747.3208848457</v>
       </c>
       <c r="N6" t="n">
-        <v>164937.8792932545</v>
+        <v>173798.0187472936</v>
       </c>
       <c r="O6" t="n">
-        <v>164937.8792932545</v>
+        <v>173798.0187472936</v>
       </c>
       <c r="P6" t="n">
-        <v>164937.8792932545</v>
+        <v>173798.0187472936</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="F3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="G3" t="n">
         <v>146.571804419537</v>
@@ -26801,7 +26801,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="F4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G4" t="n">
         <v>405.7415719969023</v>
@@ -26828,7 +26828,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="P4" t="n">
         <v>405.7415719969023</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>312.2938397833332</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>131.1616962950334</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27460,22 +27460,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>133.5095593947519</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>143.5478536285894</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>38.23792762219048</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>309.1791863104999</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27660,19 +27660,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>195.8925415817688</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27745,10 +27745,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27757,10 +27757,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>71.10541651401849</v>
+        <v>201.9390274350188</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228173</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>203.6756636163529</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>167.9226194324353</v>
       </c>
       <c r="F8" t="n">
-        <v>216.5306486674267</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>104.3983415011523</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28070,7 +28070,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>143.9416082994493</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31752,22 +31752,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I11" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L11" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M11" t="n">
         <v>103.4642265438474</v>
@@ -31776,16 +31776,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
@@ -31794,7 +31794,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H12" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K12" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M12" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O12" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R12" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,40 +31913,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H13" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J13" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L13" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M13" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N13" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P13" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S13" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
@@ -31989,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I14" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L14" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M14" t="n">
         <v>103.4642265438474</v>
@@ -32013,16 +32013,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
@@ -32031,7 +32031,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H15" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K15" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M15" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O15" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R15" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,40 +32150,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H16" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J16" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L16" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M16" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N16" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P16" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R16" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S16" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I17" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J17" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K17" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L17" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M17" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N17" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R17" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S17" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T17" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,43 +32305,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H18" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I18" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J18" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K18" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M18" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O18" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P18" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R18" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H19" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I19" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J19" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K19" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L19" t="n">
         <v>39.29566048323129</v>
@@ -32408,7 +32408,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O19" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P19" t="n">
         <v>31.96707026225442</v>
@@ -32417,16 +32417,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R19" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S19" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T19" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I20" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M20" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N20" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,43 +32542,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H21" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K21" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O21" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H22" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J22" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L22" t="n">
         <v>39.29566048323129</v>
@@ -32645,7 +32645,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P22" t="n">
         <v>31.96707026225442</v>
@@ -32654,16 +32654,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011533</v>
+        <v>0.5892333846011532</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046562</v>
+        <v>6.034486400046561</v>
       </c>
       <c r="I23" t="n">
         <v>22.71642005983598</v>
       </c>
       <c r="J23" t="n">
-        <v>50.01044697629218</v>
+        <v>50.01044697629217</v>
       </c>
       <c r="K23" t="n">
-        <v>74.952696146459</v>
+        <v>74.95269614645899</v>
       </c>
       <c r="L23" t="n">
-        <v>92.98544734044657</v>
+        <v>92.98544734044656</v>
       </c>
       <c r="M23" t="n">
         <v>103.4642265438473</v>
@@ -32724,25 +32724,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.27919642971764</v>
+        <v>99.27919642971763</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737666</v>
+        <v>84.73249724737664</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134784</v>
+        <v>63.63057666134782</v>
       </c>
       <c r="R23" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545222</v>
       </c>
       <c r="S23" t="n">
         <v>13.42715575159879</v>
       </c>
       <c r="T23" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091549</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809225</v>
+        <v>0.04713867076809224</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891927</v>
       </c>
       <c r="H24" t="n">
         <v>3.044821823885099</v>
@@ -32788,40 +32788,40 @@
         <v>10.85461004427703</v>
       </c>
       <c r="J24" t="n">
-        <v>29.78587961321931</v>
+        <v>29.7858796132193</v>
       </c>
       <c r="K24" t="n">
-        <v>50.90881248409522</v>
+        <v>50.90881248409521</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253943</v>
+        <v>68.45318092253942</v>
       </c>
       <c r="M24" t="n">
-        <v>79.88163340864764</v>
+        <v>79.88163340864763</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975588</v>
+        <v>81.99586254975587</v>
       </c>
       <c r="O24" t="n">
-        <v>75.01019504100587</v>
+        <v>75.01019504100586</v>
       </c>
       <c r="P24" t="n">
-        <v>60.202294536017</v>
+        <v>60.20229453601699</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.24363958326609</v>
+        <v>40.24363958326608</v>
       </c>
       <c r="R24" t="n">
         <v>19.57424965436761</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422064</v>
+        <v>5.855958412422063</v>
       </c>
       <c r="T24" t="n">
-        <v>1.270749889259948</v>
+        <v>1.270749889259947</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823637</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32870,16 +32870,16 @@
         <v>18.68670365525801</v>
       </c>
       <c r="K25" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412593</v>
       </c>
       <c r="L25" t="n">
-        <v>39.29566048323128</v>
+        <v>39.29566048323127</v>
       </c>
       <c r="M25" t="n">
-        <v>41.43176432141108</v>
+        <v>41.43176432141107</v>
       </c>
       <c r="N25" t="n">
-        <v>40.44660957039455</v>
+        <v>40.44660957039454</v>
       </c>
       <c r="O25" t="n">
         <v>37.35899041172068</v>
@@ -32888,16 +32888,16 @@
         <v>31.96707026225441</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.13234246735009</v>
+        <v>22.13234246735008</v>
       </c>
       <c r="R25" t="n">
         <v>11.88433024031196</v>
       </c>
       <c r="S25" t="n">
-        <v>4.606199165118889</v>
+        <v>4.606199165118888</v>
       </c>
       <c r="T25" t="n">
-        <v>1.129323738970203</v>
+        <v>1.129323738970202</v>
       </c>
       <c r="U25" t="n">
         <v>0.01441689879536431</v>
@@ -32937,22 +32937,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H26" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I26" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J26" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K26" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L26" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M26" t="n">
         <v>103.4642265438473</v>
@@ -32961,25 +32961,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O26" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P26" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q26" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R26" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S26" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T26" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,7 +33019,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H27" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I27" t="n">
         <v>10.85461004427703</v>
@@ -33028,22 +33028,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K27" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L27" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M27" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N27" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O27" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P27" t="n">
-        <v>60.20229453601701</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q27" t="n">
         <v>40.24363958326609</v>
@@ -33052,7 +33052,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S27" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T27" t="n">
         <v>1.270749889259948</v>
@@ -33095,34 +33095,34 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H28" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I28" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J28" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K28" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L28" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M28" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N28" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O28" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P28" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q28" t="n">
         <v>22.13234246735009</v>
@@ -33131,7 +33131,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S28" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T28" t="n">
         <v>1.129323738970203</v>
@@ -33174,22 +33174,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H29" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I29" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J29" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K29" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L29" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M29" t="n">
         <v>103.4642265438473</v>
@@ -33198,25 +33198,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O29" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P29" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q29" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R29" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S29" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T29" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,7 +33256,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H30" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I30" t="n">
         <v>10.85461004427703</v>
@@ -33265,22 +33265,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K30" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L30" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M30" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N30" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O30" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P30" t="n">
-        <v>60.20229453601701</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q30" t="n">
         <v>40.24363958326609</v>
@@ -33289,7 +33289,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S30" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T30" t="n">
         <v>1.270749889259948</v>
@@ -33332,34 +33332,34 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H31" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I31" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J31" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K31" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L31" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M31" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N31" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O31" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P31" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q31" t="n">
         <v>22.13234246735009</v>
@@ -33368,7 +33368,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S31" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T31" t="n">
         <v>1.129323738970203</v>
@@ -33411,22 +33411,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H32" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I32" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J32" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K32" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L32" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M32" t="n">
         <v>103.4642265438473</v>
@@ -33435,25 +33435,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O32" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P32" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q32" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R32" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S32" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T32" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,7 +33493,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H33" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I33" t="n">
         <v>10.85461004427703</v>
@@ -33502,22 +33502,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K33" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L33" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M33" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N33" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O33" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P33" t="n">
-        <v>60.20229453601701</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q33" t="n">
         <v>40.24363958326609</v>
@@ -33526,7 +33526,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S33" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T33" t="n">
         <v>1.270749889259948</v>
@@ -33569,34 +33569,34 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H34" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I34" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J34" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K34" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L34" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M34" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N34" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O34" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P34" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q34" t="n">
         <v>22.13234246735009</v>
@@ -33605,7 +33605,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S34" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T34" t="n">
         <v>1.129323738970203</v>
@@ -33648,22 +33648,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H35" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I35" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J35" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K35" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L35" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M35" t="n">
         <v>103.4642265438473</v>
@@ -33672,25 +33672,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O35" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P35" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q35" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R35" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S35" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T35" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,7 +33730,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H36" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I36" t="n">
         <v>10.85461004427703</v>
@@ -33739,22 +33739,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K36" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L36" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M36" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N36" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O36" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P36" t="n">
-        <v>60.20229453601701</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q36" t="n">
         <v>40.24363958326609</v>
@@ -33763,7 +33763,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S36" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T36" t="n">
         <v>1.270749889259948</v>
@@ -33806,34 +33806,34 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H37" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I37" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J37" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K37" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L37" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M37" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N37" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O37" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P37" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q37" t="n">
         <v>22.13234246735009</v>
@@ -33842,7 +33842,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S37" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T37" t="n">
         <v>1.129323738970203</v>
@@ -33885,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H38" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I38" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J38" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K38" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L38" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M38" t="n">
         <v>103.4642265438473</v>
@@ -33909,25 +33909,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O38" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P38" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R38" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S38" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T38" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,7 +33967,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H39" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I39" t="n">
         <v>10.85461004427703</v>
@@ -33976,22 +33976,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L39" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M39" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N39" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O39" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P39" t="n">
-        <v>60.20229453601701</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q39" t="n">
         <v>40.24363958326609</v>
@@ -34000,7 +34000,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S39" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T39" t="n">
         <v>1.270749889259948</v>
@@ -34043,34 +34043,34 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H40" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I40" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J40" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K40" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L40" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M40" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N40" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O40" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P40" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q40" t="n">
         <v>22.13234246735009</v>
@@ -34079,7 +34079,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S40" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T40" t="n">
         <v>1.129323738970203</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34783,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34792,10 +34792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O9" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K11" t="n">
         <v>179.0082576726433</v>
@@ -35430,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>124.8420549921024</v>
+        <v>124.8420549921026</v>
       </c>
       <c r="O12" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
-        <v>244.690655761624</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L13" t="n">
         <v>66.88568574354744</v>
@@ -35582,10 +35582,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P13" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K14" t="n">
         <v>179.0082576726433</v>
@@ -35667,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>177.5326105223149</v>
       </c>
       <c r="L15" t="n">
-        <v>264.5302852029488</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969024</v>
+        <v>259.1935575206327</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
@@ -35746,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L16" t="n">
         <v>66.88568574354744</v>
@@ -35819,10 +35819,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P16" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K17" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L17" t="n">
         <v>274.8802469209098</v>
@@ -35904,7 +35904,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35968,10 +35968,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>300.7391464461244</v>
+        <v>116.0723750175074</v>
       </c>
       <c r="M18" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N18" t="n">
         <v>405.7415719969023</v>
@@ -35980,10 +35980,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L19" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M19" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N19" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O19" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P19" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K20" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L20" t="n">
         <v>274.8802469209098</v>
@@ -36141,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>177.5326105223149</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N21" t="n">
-        <v>153.8813432790641</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O21" t="n">
-        <v>326.276269873291</v>
+        <v>319.1066969170767</v>
       </c>
       <c r="P21" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M22" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167966</v>
+        <v>38.06115762167965</v>
       </c>
       <c r="K23" t="n">
         <v>179.0082576726432</v>
@@ -36375,10 +36375,10 @@
         <v>249.9811662707763</v>
       </c>
       <c r="P23" t="n">
-        <v>175.2982096635898</v>
+        <v>175.2982096635897</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680303</v>
+        <v>53.63987744680302</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36451,13 +36451,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>179.7282553970214</v>
       </c>
       <c r="P24" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>45.37675286849161</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243084</v>
+        <v>8.438502608243077</v>
       </c>
       <c r="L25" t="n">
         <v>66.88568574354741</v>
       </c>
       <c r="M25" t="n">
-        <v>81.01564128325167</v>
+        <v>81.01564128325165</v>
       </c>
       <c r="N25" t="n">
         <v>84.57878194962314</v>
       </c>
       <c r="O25" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576035</v>
       </c>
       <c r="P25" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714789</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K26" t="n">
         <v>179.0082576726432</v>
@@ -36606,7 +36606,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N26" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O26" t="n">
         <v>249.9811662707763</v>
@@ -36615,7 +36615,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q26" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36685,13 +36685,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N27" t="n">
-        <v>405.7415719969023</v>
+        <v>331.413953801379</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36755,16 +36755,16 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L28" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M28" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N28" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O28" t="n">
         <v>61.94411832576036</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K29" t="n">
         <v>179.0082576726432</v>
@@ -36843,7 +36843,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N29" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O29" t="n">
         <v>249.9811662707763</v>
@@ -36852,7 +36852,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q29" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>177.5326105223148</v>
@@ -36922,7 +36922,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N30" t="n">
-        <v>14.50290175900885</v>
+        <v>43.54219004597032</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -36992,16 +36992,16 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L31" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M31" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N31" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O31" t="n">
         <v>61.94411832576036</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K32" t="n">
         <v>179.0082576726432</v>
@@ -37080,7 +37080,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N32" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O32" t="n">
         <v>249.9811662707763</v>
@@ -37089,7 +37089,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q32" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37159,16 +37159,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N33" t="n">
-        <v>405.7415719969023</v>
+        <v>43.54219004597032</v>
       </c>
       <c r="O33" t="n">
-        <v>319.1066969170767</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,16 +37229,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L34" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M34" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N34" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O34" t="n">
         <v>61.94411832576036</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K35" t="n">
         <v>179.0082576726432</v>
@@ -37317,7 +37317,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N35" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O35" t="n">
         <v>249.9811662707763</v>
@@ -37326,7 +37326,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q35" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>403.4526632366292</v>
+        <v>41.25328128569732</v>
       </c>
       <c r="N36" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O36" t="n">
-        <v>319.1066969170767</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,16 +37466,16 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L37" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M37" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N37" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O37" t="n">
         <v>61.94411832576036</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K38" t="n">
         <v>179.0082576726432</v>
@@ -37554,7 +37554,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N38" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O38" t="n">
         <v>249.9811662707763</v>
@@ -37563,7 +37563,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506012</v>
       </c>
       <c r="M39" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N39" t="n">
-        <v>331.4139538013792</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
@@ -37703,16 +37703,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L40" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M40" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N40" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O40" t="n">
         <v>61.94411832576036</v>
@@ -37797,7 +37797,7 @@
         <v>249.9811662707763</v>
       </c>
       <c r="P41" t="n">
-        <v>175.2982096635902</v>
+        <v>175.2982096635898</v>
       </c>
       <c r="Q41" t="n">
         <v>53.63987744680304</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K42" t="n">
         <v>177.5326105223148</v>
@@ -37870,13 +37870,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N42" t="n">
-        <v>153.8813432790646</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O42" t="n">
-        <v>326.276269873291</v>
+        <v>290.0674086301152</v>
       </c>
       <c r="P42" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>313.0722467132387</v>
       </c>
       <c r="O44" t="n">
-        <v>249.9811662707763</v>
+        <v>249.9811662707764</v>
       </c>
       <c r="P44" t="n">
         <v>175.2982096635898</v>
@@ -38101,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>116.0723750175074</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
         <v>403.4526632366292</v>
@@ -38113,10 +38113,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
